--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AE_PythonProject\testUI\testcases\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13005" activeTab="2"/>
+    <workbookView windowWidth="17060" windowHeight="6760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="newcreate" sheetId="2" r:id="rId2"/>
     <sheet name="truework" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -111,6 +106,9 @@
     <t>业务流程 ID</t>
   </si>
   <si>
+    <t>流程描述</t>
+  </si>
+  <si>
     <t>步骤序号</t>
   </si>
   <si>
@@ -135,75 +133,26 @@
     <t>测试状态</t>
   </si>
   <si>
-    <t>流程描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“共享空间”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“模型”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次点击“模型”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“关节机器人”（random）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“确定”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击左侧结构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrueWork_002</t>
-  </si>
-  <si>
-    <t>TrueWork_003</t>
-  </si>
-  <si>
-    <t>TrueWork_004</t>
-  </si>
-  <si>
-    <t>TrueWork_005</t>
-  </si>
-  <si>
-    <t>TrueWork_006</t>
-  </si>
-  <si>
-    <t>TrueWork_007</t>
-  </si>
-  <si>
-    <t>TrueWork_008</t>
-  </si>
-  <si>
-    <t>TrueWork_009</t>
-  </si>
-  <si>
     <t>NewCreate_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击“新建”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>click</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>xpath</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>//div[@class='icon_and_text' and span='</t>
     </r>
     <r>
@@ -220,25 +169,26 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>']</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueWork_001</t>
   </si>
   <si>
     <t>点击“打开”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrueWork_010</t>
-  </si>
-  <si>
-    <t>TrueWork_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -246,166 +196,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>lick</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击移动对象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nput</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击旋转对象绕z轴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrueWork_011</t>
-  </si>
-  <si>
-    <t>输入x=1150，y=575</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入90</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"//div[contains(@class, 'custom_tree_node')]//span[text()='共享空间']"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>//div[@class='icon_and_text</t>
     </r>
     <r>
@@ -418,26 +223,128 @@
       </rPr>
       <t>' and span='打开']</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueWork_002</t>
+  </si>
+  <si>
+    <t>点击“共享空间”</t>
+  </si>
+  <si>
+    <t>"//div[contains(@class, 'custom_tree_node')]//span[text()='共享空间']"</t>
+  </si>
+  <si>
+    <t>TrueWork_003</t>
+  </si>
+  <si>
+    <t>点击“模型”</t>
   </si>
   <si>
     <t>xpath(先定位父容器)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//span[@class='custom_tree_node']/div/span[text()='模型']</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueWork_004</t>
+  </si>
+  <si>
+    <t>再次点击“模型”</t>
   </si>
   <si>
     <t>//span[@class='el-tree-node__content']/span/div/span[text()='模型']</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueWork_005</t>
+  </si>
+  <si>
+    <t>点击“关节机器人”（random）</t>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='关节机器人']</t>
+  </si>
+  <si>
+    <t>TrueWork_006</t>
+  </si>
+  <si>
+    <t>点击“确定”</t>
+  </si>
+  <si>
+    <t>classname</t>
+  </si>
+  <si>
+    <t>el-button el-button--primary el-button--small delete-primary-style</t>
+  </si>
+  <si>
+    <t>TrueWork_007</t>
+  </si>
+  <si>
+    <t>点击左侧结构</t>
+  </si>
+  <si>
+    <t>css_selector</t>
+  </si>
+  <si>
+    <t>"span[data-v-cf676716]"</t>
+  </si>
+  <si>
+    <t>TrueWork_008</t>
+  </si>
+  <si>
+    <t>点击移动对象</t>
+  </si>
+  <si>
+    <t>TrueWork_009</t>
+  </si>
+  <si>
+    <t>输入x=1150，y=575</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nput</t>
+    </r>
+  </si>
+  <si>
+    <t>TrueWork_010</t>
+  </si>
+  <si>
+    <t>点击旋转对象绕z轴</t>
+  </si>
+  <si>
+    <t>TrueWork_011</t>
+  </si>
+  <si>
+    <t>输入90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,13 +356,170 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.25"/>
       <color rgb="FF0F1115"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0F1115"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -463,35 +527,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF0F1115"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,8 +547,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -547,9 +770,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -563,178 +1028,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -745,7 +1141,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -773,40 +1169,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1056,121 +1566,121 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+      <selection activeCell="A7" sqref="$A7:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="23.2545454545455" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.8727272727273" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.2545454545455" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.1272727272727" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.6272727272727" customWidth="1"/>
+    <col min="8" max="8" width="25.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>123</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>123456</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1178,7 +1688,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1186,7 +1696,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1194,7 +1704,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1202,7 +1712,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1210,7 +1720,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1218,7 +1728,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1227,321 +1737,344 @@
       <c r="F13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="21.3727272727273" customWidth="1"/>
+    <col min="2" max="2" width="30.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="12.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="18.1272727272727" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="15.8727272727273" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" ht="17.5" spans="1:8">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="27.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="12.1272727272727" customWidth="1"/>
+    <col min="5" max="5" width="21.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="25.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="16.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>61</v>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>65</v>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="newcreate" sheetId="2" r:id="rId2"/>
-    <sheet name="truework" sheetId="3" r:id="rId3"/>
+    <sheet name="workflow01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -180,9 +180,6 @@
     </r>
   </si>
   <si>
-    <t>TrueWork_001</t>
-  </si>
-  <si>
     <t>点击“打开”</t>
   </si>
   <si>
@@ -208,61 +205,28 @@
     </r>
   </si>
   <si>
-    <t>TrueWork_002</t>
-  </si>
-  <si>
     <t>点击“共享空间”</t>
   </si>
   <si>
-    <t>TrueWork_003</t>
-  </si>
-  <si>
     <t>点击“模型”</t>
   </si>
   <si>
-    <t>TrueWork_004</t>
-  </si>
-  <si>
     <t>再次点击“模型”</t>
   </si>
   <si>
-    <t>TrueWork_005</t>
-  </si>
-  <si>
-    <t>TrueWork_006</t>
-  </si>
-  <si>
     <t>点击“确定”</t>
   </si>
   <si>
     <t>el-button el-button--primary el-button--small delete-primary-style</t>
   </si>
   <si>
-    <t>TrueWork_007</t>
-  </si>
-  <si>
     <t>点击左侧结构</t>
   </si>
   <si>
-    <t>TrueWork_008</t>
-  </si>
-  <si>
     <t>点击移动对象</t>
   </si>
   <si>
-    <t>TrueWork_009</t>
-  </si>
-  <si>
-    <t>输入x=1150，y=575</t>
-  </si>
-  <si>
-    <t>TrueWork_010</t>
-  </si>
-  <si>
     <t>点击旋转对象绕z轴</t>
-  </si>
-  <si>
-    <t>TrueWork_011</t>
   </si>
   <si>
     <t>输入90</t>
@@ -342,9 +306,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TrueWork_012</t>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -372,15 +333,101 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>svg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>移动对象定位x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动对象定位y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入y=575</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入x=1150</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='translation_container']//div[@class='left']//slider_container//el-input//el-input__inner</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//translation_container||//el-id-4197-410||//el-form-item__content||//el-input||//el-input__inner</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath,id,xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='bottom_tool_wrap']//div[@class='bottom_tools_container']//div[@class='svg_icon svg_icon_default svg_icon_acitve el-tooltip__trigger el-tooltip__trigger']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='bottom_tool_wrap']//div[@class='bottom_tools_container']//div[@class='svg_icon svg_icon_default el-tooltip__trigger el-tooltip__trigger']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_002</t>
+  </si>
+  <si>
+    <t>work_flow_003</t>
+  </si>
+  <si>
+    <t>work_flow_004</t>
+  </si>
+  <si>
+    <t>work_flow_005</t>
+  </si>
+  <si>
+    <t>work_flow_006</t>
+  </si>
+  <si>
+    <t>work_flow_007</t>
+  </si>
+  <si>
+    <t>work_flow_008</t>
+  </si>
+  <si>
+    <t>work_flow_009</t>
+  </si>
+  <si>
+    <t>work_flow_010</t>
+  </si>
+  <si>
+    <t>work_flow_011</t>
+  </si>
+  <si>
+    <t>work_flow_012</t>
+  </si>
+  <si>
+    <t>work_flow_013</t>
+  </si>
+  <si>
+    <t>work_flow_014</t>
+  </si>
+  <si>
+    <t>work_flow_015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +482,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -511,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -543,11 +582,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,227 +1368,392 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
+      <c r="A3" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
+      <c r="A4" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
+      <c r="A5" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
+      <c r="A6" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
+      <c r="A7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>52</v>
+      <c r="A8" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="9">
+        <v>44</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>54</v>
+      <c r="A9" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9">
+        <v>46</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="11">
+        <v>85</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11">
+        <v>86</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+        <v>87</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11"/>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="11">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -15,6 +15,8 @@
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="newcreate" sheetId="2" r:id="rId2"/>
     <sheet name="workflow01" sheetId="3" r:id="rId3"/>
+    <sheet name="碰撞检测" sheetId="4" r:id="rId4"/>
+    <sheet name="运动副" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -217,19 +219,245 @@
     <t>点击“确定”</t>
   </si>
   <si>
-    <t>el-button el-button--primary el-button--small delete-primary-style</t>
-  </si>
-  <si>
-    <t>点击左侧结构</t>
-  </si>
-  <si>
     <t>点击移动对象</t>
   </si>
   <si>
-    <t>点击旋转对象绕z轴</t>
-  </si>
-  <si>
-    <t>输入90</t>
+    <t>//span[text()='共享空间']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lick</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='关节机器人']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“关节机器人”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='AIR4_560A.m']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(random)点击获取机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_002</t>
+  </si>
+  <si>
+    <t>work_flow_003</t>
+  </si>
+  <si>
+    <t>work_flow_004</t>
+  </si>
+  <si>
+    <t>work_flow_005</t>
+  </si>
+  <si>
+    <t>work_flow_006</t>
+  </si>
+  <si>
+    <t>work_flow_007</t>
+  </si>
+  <si>
+    <t>work_flow_008</t>
+  </si>
+  <si>
+    <t>work_flow_009</t>
+  </si>
+  <si>
+    <t>work_flow_011</t>
+  </si>
+  <si>
+    <t>work_flow_013</t>
+  </si>
+  <si>
+    <t>work_flow_014</t>
+  </si>
+  <si>
+    <t>work_flow_015</t>
+  </si>
+  <si>
+    <t>创建工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建TCP坐标系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x,y,z</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=180</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=180</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击示教器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_017</t>
+  </si>
+  <si>
+    <t>work_flow_018</t>
+  </si>
+  <si>
+    <t>work_flow_019</t>
+  </si>
+  <si>
+    <t>work_flow_020</t>
+  </si>
+  <si>
+    <t>work_flow_021</t>
+  </si>
+  <si>
+    <t>work_flow_022</t>
+  </si>
+  <si>
+    <t>work_flow_023</t>
+  </si>
+  <si>
+    <t>work_flow_024</t>
+  </si>
+  <si>
+    <t>work_flow_025</t>
+  </si>
+  <si>
+    <t>work_flow_026</t>
+  </si>
+  <si>
+    <t>work_flow_027</t>
+  </si>
+  <si>
+    <t>点击创建安装坐标系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更多</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集点位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击生成程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移到工作台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击启动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_028</t>
+  </si>
+  <si>
+    <t>work_flow_029</t>
+  </si>
+  <si>
+    <t>work_flow_030</t>
+  </si>
+  <si>
+    <t>work_flow_031</t>
+  </si>
+  <si>
+    <t>work_flow_032</t>
+  </si>
+  <si>
+    <t>work_flow_033</t>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑示教器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击另存</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_034</t>
+  </si>
+  <si>
+    <t>work_flow_035</t>
+  </si>
+  <si>
+    <t>work_flow_036</t>
   </si>
   <si>
     <r>
@@ -255,33 +483,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//span[text()='共享空间']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xpath</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -290,19 +491,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>el-tree-node is-current is-focusable||//span[@class='custom_tree_node']/div/span[text()='模型']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>class,xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[@class='custom_tree_node']/div/span[text()='关节机器人']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“关节机器人”</t>
+    <t>//div[@class='el-tree-node is-current is-focusable']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左侧结构机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][1]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动对象x轴,输入x=1150</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动对象y轴,输入y=1110</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕z轴输入z=-90</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击旋转对象</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -310,117 +535,81 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//span[@class='custom_tree_node']/div/span[text()='AIR4_560A.m']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(random)点击获取机器人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
+    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][4]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='rotation_panel']/form[2]/div[@class='el-form-item asterisk-left el-form-item--label-left'][3]/div/div/div[2]/div/div/input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏“模型”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='home_page_header_tool_center']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='home_page_header_tool_center']/div/div//div[@class='content']//div[@class='child_btns'][2]/span[text()='创建工具']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="left_content"]/button[1]/span[text()="拾取模型"]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, "el-form-item__content")]/button/span[text()="创建安装坐标系"]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置安装坐标系的x=1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置安装坐标系的y=2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置安装坐标系的z=3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_flow_037</t>
+  </si>
+  <si>
+    <t>work_flow_038</t>
+  </si>
+  <si>
+    <t>work_flow_039</t>
+  </si>
+  <si>
+    <t>//button[@class='el-button el-button--primary el-button--small delete-primary-style']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>//div[@class='el-tree-node__content']/div/div/span[text()='AIR4_560A_15']</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动对象定位x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动对象定位y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入y=575</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入x=1150</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='translation_container']//div[@class='left']//slider_container//el-input//el-input__inner</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//translation_container||//el-id-4197-410||//el-form-item__content||//el-input||//el-input__inner</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath,id,xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='bottom_tool_wrap']//div[@class='bottom_tools_container']//div[@class='svg_icon svg_icon_default svg_icon_acitve el-tooltip__trigger el-tooltip__trigger']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='bottom_tool_wrap']//div[@class='bottom_tools_container']//div[@class='svg_icon svg_icon_default el-tooltip__trigger el-tooltip__trigger']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_002</t>
-  </si>
-  <si>
-    <t>work_flow_003</t>
-  </si>
-  <si>
-    <t>work_flow_004</t>
-  </si>
-  <si>
-    <t>work_flow_005</t>
-  </si>
-  <si>
-    <t>work_flow_006</t>
-  </si>
-  <si>
-    <t>work_flow_007</t>
-  </si>
-  <si>
-    <t>work_flow_008</t>
-  </si>
-  <si>
-    <t>work_flow_009</t>
-  </si>
-  <si>
-    <t>work_flow_010</t>
-  </si>
-  <si>
-    <t>work_flow_011</t>
-  </si>
-  <si>
-    <t>work_flow_012</t>
-  </si>
-  <si>
-    <t>work_flow_013</t>
-  </si>
-  <si>
-    <t>work_flow_014</t>
-  </si>
-  <si>
-    <t>work_flow_015</t>
+    <t>点击“工具”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(random)点击工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击安装到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1319,23 +1508,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:XFD1048576"/>
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,9 +1556,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
@@ -1383,13 +1572,13 @@
       <c r="E2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F2" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>41</v>
@@ -1404,12 +1593,12 @@
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -1421,15 +1610,15 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>43</v>
@@ -1438,21 +1627,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1461,35 +1651,35 @@
         <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>44</v>
@@ -1501,263 +1691,589 @@
         <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1150</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1110</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="9">
+        <v>-90</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="newcreate" sheetId="2" r:id="rId2"/>
-    <sheet name="workflow01" sheetId="3" r:id="rId3"/>
+    <sheet name="workflow01" sheetId="3" r:id="rId2"/>
+    <sheet name="示教器专项" sheetId="6" r:id="rId3"/>
     <sheet name="碰撞检测" sheetId="4" r:id="rId4"/>
     <sheet name="运动副" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -140,48 +140,12 @@
     <t>测试状态</t>
   </si>
   <si>
-    <t>NewCreate_001</t>
-  </si>
-  <si>
-    <t>点击“新建”</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//div[@class='icon_and_text' and span='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>']</t>
-    </r>
-  </si>
-  <si>
     <t>点击“打开”</t>
   </si>
   <si>
@@ -222,401 +186,1733 @@
     <t>点击移动对象</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lick</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“关节机器人”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='AIR4_560A.m']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(random)点击获取机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建TCP坐标系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x,y,z</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击示教器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建安装坐标系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更多</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集点位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击生成程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移到工作台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑示教器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击另存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//div[@class='icon_and_text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and span='打开']</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node is-current is-focusable']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左侧结构机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][1]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动对象x轴,输入x=1150</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动对象y轴,输入y=1110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕z轴输入z=-90</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击旋转对象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][3]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][4]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='rotation_panel']/form[2]/div[@class='el-form-item asterisk-left el-form-item--label-left'][3]/div/div/div[2]/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='home_page_header_tool_center']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='home_page_header_tool_center']/div/div//div[@class='content']//div[@class='child_btns'][2]/span[text()='创建工具']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="left_content"]/button[1]/span[text()="拾取模型"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, "el-form-item__content")]/button/span[text()="创建安装坐标系"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@class='el-button el-button--primary el-button--small delete-primary-style']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__content']/div/div/span[text()='AIR4_560A_15']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“工具”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击安装到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击模型，创建模型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,z=50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,y=500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,"change_size_container")]/div[@class='left']/form/div[@class='el-form-item asterisk-left el-form-item--label-right'][1]/div/div/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,"change_size_container")]/div[@class='left']/form/div[@class='el-form-item asterisk-left el-form-item--label-right'][2]/div/div/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,"change_size_container")]/div[@class='left']/form/div[@class='el-form-item asterisk-left el-form-item--label-right'][3]/div/div/div/div/input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="collapse_item_title"]//span[text()="模型"]||//div[@class="child_btns" and .//span="创建模型"]||</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建模型点击确定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='space-around flex margin']/button[1]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath,xpath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>//span[text()='共享空间']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[text()='共享空间']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='模型']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='模型']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node is-current is-focusable']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>//span[@class='custom_tree_node']/div/span[text()='关节机器人']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“关节机器人”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class='custom_tree_node']/div/span[text()='工具']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(random)点击日皓焊枪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(@class,'custom_tree_node')]/div/span[text()='日皓焊枪arh11_501w1.m']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@class='el-button el-button--primary el-button--small delete-primary-style']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击左侧结构树中日皓焊枪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='menu_list_menu']/div[10]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装到机器人A560</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='menu_item']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏“模型”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,x=500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除日皓焊枪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_038</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_039</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_049</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_051</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>//div[contains(@class,'custom_tree_node')]/div/span[contains(text(), '日皓焊枪')]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击解除日皓焊枪安装</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[@class='custom_tree_node']/div/span[text()='AIR4_560A.m']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(random)点击获取机器人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_002</t>
-  </si>
-  <si>
-    <t>work_flow_003</t>
-  </si>
-  <si>
-    <t>work_flow_004</t>
-  </si>
-  <si>
-    <t>work_flow_005</t>
-  </si>
-  <si>
-    <t>work_flow_006</t>
-  </si>
-  <si>
-    <t>work_flow_007</t>
-  </si>
-  <si>
-    <t>work_flow_008</t>
-  </si>
-  <si>
-    <t>work_flow_009</t>
-  </si>
-  <si>
-    <t>work_flow_011</t>
-  </si>
-  <si>
-    <t>work_flow_013</t>
-  </si>
-  <si>
-    <t>work_flow_014</t>
-  </si>
-  <si>
-    <t>work_flow_015</t>
-  </si>
-  <si>
-    <t>创建工具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取模型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击创建TCP坐标系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>x,y,z</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']/div/div/div[contains(text(),'删除')]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击拾取模型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“BXMD74”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'el-tree-node') and contains(@class, 'is-expanded') and contains(@class, 'is-focusable')]//div[@class='custom_tree_node']//span[contains(text(),'BXMD74')]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置安装坐标系的x=-517</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'el-dialog__body')]/div[3]//form/div[1]//div[contains(@class, 'el-form-item__content')]/div[@class='custom-input-number']/div//input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'el-dialog__body')]/div[6]/form/div[2]//div[contains(@class,'custom-input-number')]//input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B=180</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=180</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击示教器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_017</t>
-  </si>
-  <si>
-    <t>work_flow_018</t>
-  </si>
-  <si>
-    <t>work_flow_019</t>
-  </si>
-  <si>
-    <t>work_flow_020</t>
-  </si>
-  <si>
-    <t>work_flow_021</t>
-  </si>
-  <si>
-    <t>work_flow_022</t>
-  </si>
-  <si>
-    <t>work_flow_023</t>
-  </si>
-  <si>
-    <t>work_flow_024</t>
-  </si>
-  <si>
-    <t>work_flow_025</t>
-  </si>
-  <si>
-    <t>work_flow_026</t>
-  </si>
-  <si>
-    <t>work_flow_027</t>
-  </si>
-  <si>
-    <t>点击创建安装坐标系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击更多</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集点位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击生成程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移到工作台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击启动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_028</t>
-  </si>
-  <si>
-    <t>work_flow_029</t>
-  </si>
-  <si>
-    <t>work_flow_030</t>
-  </si>
-  <si>
-    <t>work_flow_031</t>
-  </si>
-  <si>
-    <t>work_flow_032</t>
-  </si>
-  <si>
-    <t>work_flow_033</t>
-  </si>
-  <si>
-    <t>退出登录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑示教器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击另存</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_034</t>
-  </si>
-  <si>
-    <t>work_flow_035</t>
-  </si>
-  <si>
-    <t>work_flow_036</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//div[@class='icon_and_text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' and span='打开']</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[@class='custom_tree_node']/div/span[text()='模型']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='el-tree-node is-current is-focusable']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击左侧结构机器人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][1]/div[@class='el-form-item__content']/div/div/div/div/input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动对象x轴,输入x=1150</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动对象y轴,输入y=1110</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕z轴输入z=-90</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击旋转对象</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][3]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][4]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='rotation_panel']/form[2]/div[@class='el-form-item asterisk-left el-form-item--label-left'][3]/div/div/div[2]/div/div/input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏“模型”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='home_page_header_tool_center']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='home_page_header_tool_center']/div/div//div[@class='content']//div[@class='child_btns'][2]/span[text()='创建工具']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class="left_content"]/button[1]/span[text()="拾取模型"]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[contains(@class, "el-form-item__content")]/button/span[text()="创建安装坐标系"]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置安装坐标系的x=1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置安装坐标系的y=2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置安装坐标系的z=3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_flow_037</t>
-  </si>
-  <si>
-    <t>work_flow_038</t>
-  </si>
-  <si>
-    <t>work_flow_039</t>
-  </si>
-  <si>
-    <t>//button[@class='el-button el-button--primary el-button--small delete-primary-style']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='el-tree-node__content']/div/div/span[text()='AIR4_560A_15']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“工具”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(random)点击工具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击安装到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'space_around') and span[contains(text(), '确认')]]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='coordinate_wrap']/form[2]/div[3]//button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +1942,6 @@
     <font>
       <sz val="11.5"/>
       <color rgb="FF0F1115"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -765,10 +2055,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1419,99 +2709,17 @@
       <c r="F13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D47" sqref="A1:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,407 +2765,473 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
+      <c r="A2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
+      <c r="D2" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
+      <c r="A3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
+      <c r="D3" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
+      <c r="A4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
+      <c r="D4" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
+      <c r="A5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
+      <c r="A6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
+      <c r="D6" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>53</v>
+      <c r="A7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="B18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="9">
-        <v>1150</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>67</v>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="9" t="s">
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="9">
-        <v>1110</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="9">
-        <v>-90</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>70</v>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>71</v>
+      <c r="A24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1965,290 +3239,535 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>89</v>
+      <c r="A25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1150</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>131</v>
+      <c r="A26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1110</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9">
+        <v>-90</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>74</v>
+      <c r="A29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>72</v>
+      <c r="A30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>87</v>
+      <c r="A31" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>100</v>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C36">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>101</v>
+        <v>34</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-517.5</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="9">
+        <v>180</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>106</v>
+        <v>185</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C40">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>108</v>
+        <v>39</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2260,7 +3779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2273,7 +3792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="261">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2065,111 +2065,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>_051</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_052</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_054</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_055</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_056</t>
     </r>
     <r>
       <rPr>
@@ -2425,6 +2320,227 @@
   </si>
   <si>
     <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_053</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Tool1')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击安装到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']/div/div[10]/div[text()]</t>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_055</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_064</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>//div[@class='operation_container']//*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'operation_item')][4]/*[local-name()='use']</t>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_056</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='main_header_set']/*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'svg_icon_default')]/*[local-name()='use']</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3248,16 +3364,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="A1:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="45.5" customWidth="1"/>
@@ -3933,7 +4049,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4426,7 +4542,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>147</v>
@@ -4446,112 +4562,190 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>58</v>
+        <v>253</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="C66">
         <v>63</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -5324,7 +5518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5337,40 +5531,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">

--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -9,36 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="workflow01" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
-    <sheet name="示教器专项" sheetId="6" r:id="rId5"/>
-    <sheet name="碰撞检测" sheetId="4" r:id="rId6"/>
-    <sheet name="运动副" sheetId="5" r:id="rId7"/>
+    <sheet name="创建工具工作流" sheetId="3" r:id="rId2"/>
+    <sheet name="运动副工作流" sheetId="5" r:id="rId3"/>
+    <sheet name="demo" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="示教器专项" sheetId="6" r:id="rId6"/>
+    <sheet name="碰撞检测" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="471">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -526,10 +513,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>B=180</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点击确定</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -623,18 +606,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>点击确定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[contains(@class, 'space_around')]//span[text()='确认']</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[contains(@class, 'space_around')]//span[text()='确认']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>安装到</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -659,10 +634,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xpath,xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class="collapse_item_title"]//span[text()="模型"]||//div[@class="child_btns" and .//span="创建模型"]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -755,6 +726,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>workflow</t>
     </r>
@@ -766,7 +741,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_028</t>
+      <t>_002</t>
     </r>
     <r>
       <rPr>
@@ -781,1302 +756,284 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>绕z轴输入z=-90</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='slider_container']//input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>click</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_013</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_029</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_030</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_031</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_032</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>绕z轴输入z=-90</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='slider_container']//input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点击绕z轴旋转“-”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>输入步长为90</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_033</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_035</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_036</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_037</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_038</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_039</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_040</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_041</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_042</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_043</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_044</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_045</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_046</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_048</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_049</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_050</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_051</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -2350,6 +1307,25 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>//span[contains(text(), 'Tool1')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击安装到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']/div/div[10]/div[text()]</t>
+  </si>
+  <si>
     <r>
       <t>workflow</t>
     </r>
@@ -2361,24 +1337,2067 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_064</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>//div[@class='operation_container']//*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'operation_item')][4]/*[local-name()='use']</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input输入数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗关闭 / 页面跳转</t>
+  </si>
+  <si>
+    <t>元素状态变化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元素可见性</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在性</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>先验证输入值，再验证点击后的页面变化</t>
+  </si>
+  <si>
+    <t>//div[@class='main_header_set']/*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'svg_icon_default')]/*[local-name()='use']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-message-box__btns']//button[@class='el-button el-button--primary el-button--small delete-primary-style']/span</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_065</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>//div[@class='menu_item']/div[contains(text(),'AIR4_560A')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>测试方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-message-box__btns']//button[@class='el-button el-button--primary el-button--small delete-primary-style']/span</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='login_main']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']//span[contains(text(), 'Tool1')]</t>
+  </si>
+  <si>
+    <t>设置B=180</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改B=180</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'el-tree-node__children')]//span[contains(text(),'Tool1')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'space_around flex')]//span[text()='确认']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']//span[contains(text(), 'Tool1')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']//span[contains(text(), 'Tool1')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>再次点击创建模型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="child_btns" and .//span="创建模型"]</t>
+  </si>
+  <si>
+    <t>//div[@class='predefined_color_wrap']/div[2]</t>
+  </si>
+  <si>
+    <t>设置颜色</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至工具坐标系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左下角世界坐标系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第二个模型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置X=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Y=0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建设备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击拾取模型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>先拾取轴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>再拾取运动物体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>再点击拾取模型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽二到一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加号，添加关节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关节类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换为移动关节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节运动范围为-2500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节运动范围为2500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创建设备弹窗下点击确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node__children')]/div[@class='el-tree-node is-expanded is-focusable']//div[@class='el-tree-node__content']//span[contains(text(),'Cuboid')]</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键选中Cuboid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='menu_list_menu']/div[6]</t>
+  </si>
+  <si>
+    <t>点击切换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-select-dropdown')]/div[@class='el-scrollbar']//span[contains(text(),'Base_Cuboid')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')]/div[@class='el-tree-node__children']/div[2]//div[@class='custom_tree_node']//span[contains(text(),'Cuboid')]</t>
+  </si>
+  <si>
+    <t>点击移动对象</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="collapse_item_title"]//span[text()="模型"]</t>
+  </si>
+  <si>
+    <t>点击导航栏模型，创建模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'child_btns_contianer')]/div[@class='child_btns_contianer_row'][2]/div[@class='child_btns'][3]//span</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-select')]//div[contains(@class,'el-select__selected-item el-select__placeholder')]/span[contains(text(),'外轴')]</t>
+  </si>
+  <si>
+    <t>点击设备类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型选择为运动设备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[text()='运动设备']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'content')]/div[@class='right']//span[text()='拾取模型']</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,x=500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,y=500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,z=500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,y=50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,x=2500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型长度,z=50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@CLASS='el-select__selected-item el-select__placeholder']</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath,xpath</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='left']//i[@class='el-icon']</t>
+  </si>
+  <si>
+    <t>//div[@class='el-select']//span[text()='旋转关节']</t>
+  </si>
+  <si>
+    <t>//span[text()='平动关节']</t>
+  </si>
+  <si>
+    <t>关节位置X设置为50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-dialog__body']//form[@class='el-form el-form--default el-form--label-left el-form--inline transform_position']/div[1]/div[@class='el-form-item__content']//input</t>
+  </si>
+  <si>
+    <t>//div[@class='joint_range']//form[@class='el-form el-form--default el-form--label-top el-form--inline']/div[1]//input</t>
+  </si>
+  <si>
+    <t>//div[@class='joint_range']//form[@class='el-form el-form--default el-form--label-top el-form--inline']/div[3]//input</t>
+  </si>
+  <si>
+    <t>//div[@class='footer']//span[text()='确认']</t>
+  </si>
+  <si>
+    <t>//div[@class='bottom space-around flex margin']/button[1]//span[text()='确定']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'child_btns_contianer')]/div[@class='child_btns_contianer_row'][1]/div[@class='child_btns'][4]//span</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设备运动位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置运动位置1=-1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table[@class='el-table__body']//tbody/tr[1]/td[5]//input</t>
+  </si>
+  <si>
+    <t>//table[@class='el-table__body']//tbody/tr[2]/td[3]//input</t>
+  </si>
+  <si>
+    <t>//div[@class='footer']//span[text()='确定']</t>
+  </si>
+  <si>
+    <t>设备运动位置点击确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="collapse_item_title"]//span[text()="配置"]</t>
+  </si>
+  <si>
+    <t>点击配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar__view')]//td[3]//div[@class='el-select__suffix']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar__view')]//td[4]//div[@class='el-select__suffix']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar__view')]//td[5]//div[@class='el-select__suffix']</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击运动位置1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击运动位置2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar__view')]//td[6]//div[@class='el-select__suffix']</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//footer[@class='el-dialog__footer']//span[text()='确认']</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击示教生成程序</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击程序</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="collapse_item_title"]//span[text()="程序"]</t>
+  </si>
+  <si>
+    <t>//div[@class="content"]//span[text()="示教创建程序"]</t>
+  </si>
+  <si>
+    <t>点击模型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击模型库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击创建一个机器人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'child_btns_contianer')]/div[@class='child_btns_contianer_row'][1]/div[@class='child_btns'][1]//span</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>double_click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='model_library_item']//div[@class='model_img_wrap'][1]//p[contains(text(),'AIR4_560A')]</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置运动位置1=1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击配置信号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='horizontal_collapse']//span[text()='配置信号']</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='signal_btns']//span[text()='新增信号']</t>
+  </si>
+  <si>
+    <t>点击新增信号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[text()='运动副']</t>
+  </si>
+  <si>
+    <t>选择运动副</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择运动设备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击触发类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击执行对象</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击执行动作True</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击执行动作False</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-popper is-pure is-light el-select__popper']//div[@class='el-scrollbar']//span[contains(text(),'运动设备')]</t>
+  </si>
+  <si>
+    <t>workflow_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow_002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='icon_and_text' and span='打开']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='icon_and_text' and span='打开']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[1]||//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[2]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow_059</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow_060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>//div[@class='el-popper is-pure is-light el-select__popper'][6]//div[@class='el-scrollbar']//li[2]/span[text()='运动位置2']</t>
+  </si>
+  <si>
+    <t>//div[@class='el-popper is-pure is-light el-select__popper'][5]//div[@class='el-scrollbar']//li[1]/span[text()='运动位置1']</t>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_038</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_039</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_049</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_051</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>_053</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_053</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2390,30 +3409,10 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Tool1')]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>右键点击工具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击安装到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='context_menu']/div/div[10]/div[text()]</t>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
     </r>
     <r>
       <rPr>
@@ -2439,7 +3438,7 @@
   </si>
   <si>
     <r>
-      <t>workflow</t>
+      <t>//workflow</t>
     </r>
     <r>
       <rPr>
@@ -2465,7 +3464,33 @@
   </si>
   <si>
     <r>
-      <t>workflow</t>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_056</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
     </r>
     <r>
       <rPr>
@@ -2490,21 +3515,8 @@
     </r>
   </si>
   <si>
-    <t>//div[@class='operation_container']//*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'operation_item')][4]/*[local-name()='use']</t>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_056</t>
+    <r>
+      <t>//workflow_003</t>
     </r>
     <r>
       <rPr>
@@ -2517,38 +3529,197 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='main_header_set']/*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'svg_icon_default')]/*[local-name()='use']</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_005</t>
+  </si>
+  <si>
+    <t>//workflow_006</t>
+  </si>
+  <si>
+    <t>//workflow_007</t>
+  </si>
+  <si>
+    <t>//workflow_008</t>
+  </si>
+  <si>
+    <t>//workflow_009</t>
+  </si>
+  <si>
+    <t>//workflow_010</t>
+  </si>
+  <si>
+    <t>//workflow_011</t>
+  </si>
+  <si>
+    <t>//workflow_012</t>
+  </si>
+  <si>
+    <t>//workflow_013</t>
+  </si>
+  <si>
+    <t>//workflow_014</t>
+  </si>
+  <si>
+    <t>//workflow_015</t>
+  </si>
+  <si>
+    <t>//workflow_016</t>
+  </si>
+  <si>
+    <t>//workflow_017</t>
+  </si>
+  <si>
+    <t>//workflow_018</t>
+  </si>
+  <si>
+    <t>//workflow_019</t>
+  </si>
+  <si>
+    <t>//workflow_020</t>
+  </si>
+  <si>
+    <t>//workflow_021</t>
+  </si>
+  <si>
+    <t>//workflow_022</t>
+  </si>
+  <si>
+    <t>//workflow_023</t>
+  </si>
+  <si>
+    <t>//workflow_024</t>
+  </si>
+  <si>
+    <t>//workflow_025</t>
+  </si>
+  <si>
+    <t>//workflow_026</t>
+  </si>
+  <si>
+    <t>//workflow_027</t>
+  </si>
+  <si>
+    <t>//workflow_028</t>
+  </si>
+  <si>
+    <t>//workflow_029</t>
+  </si>
+  <si>
+    <t>//workflow_030</t>
+  </si>
+  <si>
+    <t>//workflow_031</t>
+  </si>
+  <si>
+    <t>//workflow_032</t>
+  </si>
+  <si>
+    <t>//workflow_033</t>
+  </si>
+  <si>
+    <t>//workflow_034</t>
+  </si>
+  <si>
+    <t>//workflow_035</t>
+  </si>
+  <si>
+    <t>//workflow_036</t>
+  </si>
+  <si>
+    <t>//workflow_037</t>
+  </si>
+  <si>
+    <t>//workflow_038</t>
+  </si>
+  <si>
+    <t>//workflow_039</t>
+  </si>
+  <si>
+    <t>//workflow_040</t>
+  </si>
+  <si>
+    <t>//workflow_041</t>
+  </si>
+  <si>
+    <t>//workflow_042</t>
+  </si>
+  <si>
+    <t>//workflow_043</t>
+  </si>
+  <si>
+    <t>//workflow_044</t>
+  </si>
+  <si>
+    <t>//workflow_045</t>
+  </si>
+  <si>
+    <t>//workflow_046</t>
+  </si>
+  <si>
+    <t>//workflow_047</t>
+  </si>
+  <si>
+    <t>//workflow_048</t>
+  </si>
+  <si>
+    <t>//workflow_049</t>
+  </si>
+  <si>
+    <t>//workflow_050</t>
+  </si>
+  <si>
+    <t>//workflow_051</t>
+  </si>
+  <si>
+    <t>//workflow_052</t>
+  </si>
+  <si>
+    <t>//workflow_053</t>
+  </si>
+  <si>
+    <t>//workflow_054</t>
+  </si>
+  <si>
+    <t>//workflow_055</t>
+  </si>
+  <si>
+    <t>//workflow_056</t>
+  </si>
+  <si>
+    <t>//workflow_057</t>
+  </si>
+  <si>
+    <t>//workflow_058</t>
+  </si>
+  <si>
+    <t>/div[@class='el-message-box__btns']//button[@class='el-button el-button--primary el-button--small delete-primary-style']/span</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2617,6 +3788,73 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2680,7 +3918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2711,6 +3949,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3198,7 +4469,7 @@
       <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
@@ -3210,7 +4481,7 @@
     <col min="8" max="8" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +4527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +4550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +4571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -3308,7 +4579,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -3316,7 +4587,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -3324,7 +4595,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3332,7 +4603,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -3340,7 +4611,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -3348,7 +4619,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -3364,23 +4635,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:J66"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="158.375" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3399,8 +4671,8 @@
       <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
+      <c r="G1" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>31</v>
@@ -3412,9 +4684,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -3429,12 +4701,15 @@
         <v>98</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>173</v>
+        <v>380</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>111</v>
@@ -3454,10 +4729,13 @@
       <c r="G3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>90</v>
@@ -3477,10 +4755,13 @@
       <c r="G4">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H4" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>89</v>
@@ -3500,10 +4781,13 @@
       <c r="G5">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -3520,10 +4804,13 @@
       <c r="F6" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H6" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -3538,12 +4825,15 @@
         <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>178</v>
+        <v>383</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -3560,10 +4850,13 @@
       <c r="F8" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -3580,10 +4873,13 @@
       <c r="F9" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -3598,13 +4894,16 @@
         <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>181</v>
+        <v>386</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>45</v>
@@ -3619,12 +4918,15 @@
         <v>66</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>182</v>
+        <v>387</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>47</v>
@@ -3639,12 +4941,15 @@
         <v>44</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>183</v>
+        <v>388</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>41</v>
@@ -3661,10 +4966,13 @@
       <c r="F13" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>184</v>
+        <v>389</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>36</v>
@@ -3679,12 +4987,15 @@
         <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>38</v>
@@ -3701,10 +5012,13 @@
       <c r="F15" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -3721,10 +5035,13 @@
       <c r="F16" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -3741,10 +5058,13 @@
       <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>85</v>
@@ -3761,10 +5081,13 @@
       <c r="F18" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>103</v>
@@ -3781,10 +5104,13 @@
       <c r="F19" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>41</v>
@@ -3801,10 +5127,13 @@
       <c r="F20" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>106</v>
@@ -3813,18 +5142,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>86</v>
@@ -3841,10 +5173,13 @@
       <c r="F22" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>108</v>
@@ -3861,10 +5196,13 @@
       <c r="F23" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
@@ -3879,12 +5217,15 @@
         <v>49</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>42</v>
@@ -3902,13 +5243,15 @@
         <v>77</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>71</v>
@@ -3928,13 +5271,15 @@
       <c r="G26" s="9">
         <v>1150</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>72</v>
@@ -3954,13 +5299,15 @@
       <c r="G27" s="9">
         <v>1110</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>75</v>
@@ -3978,40 +5325,44 @@
         <v>78</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4023,41 +5374,45 @@
         <v>44</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G30" s="9">
         <v>90</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>69</v>
@@ -4072,16 +5427,18 @@
         <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>114</v>
@@ -4090,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>66</v>
@@ -4098,10 +5455,13 @@
       <c r="F33" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>112</v>
@@ -4118,13 +5478,16 @@
       <c r="F34" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H34" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4139,13 +5502,15 @@
         <v>80</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>210</v>
+        <v>391</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>117</v>
@@ -4163,13 +5528,15 @@
         <v>81</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>118</v>
@@ -4187,13 +5554,15 @@
         <v>119</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>55</v>
@@ -4211,13 +5580,15 @@
         <v>82</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>213</v>
+        <v>394</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>120</v>
@@ -4237,16 +5608,18 @@
       <c r="G39" s="9">
         <v>-517.5</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>214</v>
+        <v>395</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -4263,37 +5636,41 @@
       <c r="G40" s="9">
         <v>180</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>216</v>
+        <v>397</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>52</v>
@@ -4308,200 +5685,223 @@
         <v>44</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>217</v>
+        <v>398</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="9">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H43" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="9">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H44" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="9">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H45" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>220</v>
+        <v>401</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="9" t="s">
-        <v>221</v>
+        <v>402</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="9" t="s">
-        <v>222</v>
+        <v>403</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4518,15 +5918,18 @@
       <c r="G51" s="9">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="9" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52">
+        <v>250</v>
+      </c>
+      <c r="C52" s="9">
         <v>51</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -4536,56 +5939,64 @@
         <v>44</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>247</v>
+        <v>409</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
-        <v>246</v>
+        <v>410</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -4597,18 +6008,21 @@
         <v>44</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C56">
-        <v>22</v>
+      <c r="C56" s="9">
+        <v>54</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>34</v>
@@ -4617,17 +6031,20 @@
         <v>44</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="9" customFormat="1">
       <c r="A57" s="9" t="s">
-        <v>254</v>
+        <v>412</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>54</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -4636,13 +6053,14 @@
       <c r="E57" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F57" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>57</v>
@@ -4651,9 +6069,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>58</v>
@@ -4662,9 +6080,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>59</v>
@@ -4673,9 +6091,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>60</v>
@@ -4684,9 +6102,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>61</v>
@@ -4695,9 +6113,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>62</v>
@@ -4706,9 +6124,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>64</v>
@@ -4717,9 +6135,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65" s="9" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>65</v>
@@ -4728,9 +6146,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66" s="9" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>63</v>
@@ -4739,13 +6157,39 @@
         <v>63</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>217</v>
+      </c>
+      <c r="H66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4757,758 +6201,1539 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F66" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="91.75" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="128" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="28.5">
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
+        <v>364</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
+      <c r="D2" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
+        <v>365</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
+      <c r="D3" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
+        <v>414</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
+      <c r="D4" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
+        <v>415</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="G5" s="9">
+        <v>50</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
+        <v>416</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
+      <c r="D6" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
+        <v>417</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
+        <v>418</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
+        <v>419</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
+        <v>420</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="9">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11">
+        <v>421</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="9">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12">
+        <v>422</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="9">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9">
-        <v>-90</v>
-      </c>
-      <c r="H12" s="9"/>
+        <v>500</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13">
+        <v>303</v>
+      </c>
+      <c r="C13" s="9">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="G13" s="9">
+        <v>500</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
+        <v>304</v>
+      </c>
+      <c r="C14" s="9">
         <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="G14" s="9">
+        <v>500</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15">
+        <v>262</v>
+      </c>
+      <c r="C15" s="9">
         <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16">
+        <v>95</v>
+      </c>
+      <c r="C16" s="9">
         <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>367</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17">
+        <v>265</v>
+      </c>
+      <c r="C17" s="9">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18">
+        <v>292</v>
+      </c>
+      <c r="C18" s="9">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="9">
-        <v>-517.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
+        <v>266</v>
+      </c>
+      <c r="C19" s="9">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G19" s="9">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20">
+        <v>267</v>
+      </c>
+      <c r="C20" s="9">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
+        <v>270</v>
+      </c>
+      <c r="C21" s="9">
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
+        <v>297</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="9">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
+        <v>298</v>
+      </c>
+      <c r="C23" s="9">
+        <v>23</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>194</v>
+        <v>434</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="C24" s="9">
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="9">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>195</v>
+        <v>435</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
+        <v>272</v>
+      </c>
+      <c r="C25" s="9">
+        <v>25</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
+        <v>274</v>
+      </c>
+      <c r="C26" s="9">
+        <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>197</v>
+        <v>437</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
+        <v>273</v>
+      </c>
+      <c r="C27" s="9">
+        <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>198</v>
+        <v>438</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="9">
+        <v>28</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="9">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="9">
+        <v>30</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="9">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="9">
+        <v>32</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="9">
+        <v>50</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="9">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" s="9">
+        <v>-2500</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="9">
+        <v>34</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="9">
+        <v>35</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="9">
+        <v>36</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="9">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="9">
+        <v>38</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="9">
+        <v>39</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1500</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="9">
+        <v>40</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" s="16" customFormat="1">
+      <c r="A41" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="9">
+        <v>41</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" s="16" customFormat="1">
+      <c r="A42" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="9">
+        <v>42</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" s="16" customFormat="1">
+      <c r="A43" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" s="16" customFormat="1">
+      <c r="A44" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" s="16" customFormat="1">
+      <c r="A45" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" s="16" customFormat="1">
+      <c r="A46" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" s="9">
+        <v>46</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" s="16" customFormat="1">
+      <c r="A47" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" s="9">
+        <v>47</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" s="16" customFormat="1">
+      <c r="A48" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="9">
+        <v>48</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" s="17" customFormat="1">
+      <c r="A49" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="17">
+        <v>49</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="16" customFormat="1">
+      <c r="A50" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="9">
+        <v>50</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" s="16" customFormat="1">
+      <c r="A51" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="9">
+        <v>51</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" s="16" customFormat="1">
+      <c r="A52" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="9">
+        <v>52</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="9">
+        <v>53</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="9">
+        <v>54</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1">
+      <c r="A55" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" s="9">
+        <v>55</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="9">
         <v>56</v>
       </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="D56" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="9">
+        <v>57</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C58" s="9">
+        <v>58</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="9">
+        <v>59</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="9">
+        <v>60</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E60" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="9">
+        <v>61</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="E61" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5516,60 +7741,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="118.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="9" t="s">
+    <row r="1" spans="1:12" ht="34.5">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -5584,12 +7811,18 @@
         <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>38</v>
@@ -5606,10 +7839,16 @@
       <c r="F3" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
@@ -5626,10 +7865,16 @@
       <c r="F4" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -5646,11 +7891,17 @@
       <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="H5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -5665,7 +7916,712 @@
         <v>44</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="9">
+        <v>-90</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-517.5</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="9">
+        <v>180</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1">
+      <c r="A22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-3.5</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1">
+      <c r="A23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1">
+      <c r="A24" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>53</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="9" customFormat="1">
+      <c r="A34" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="9">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1">
+      <c r="A35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="9">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36">
+        <v>52</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5677,14 +8633,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5694,9 +8798,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5707,7 +8811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="481">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1034,32 +1034,6 @@
   <si>
     <t>输入步长为90</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_057</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -1324,32 +1298,6 @@
   </si>
   <si>
     <t>//div[@class='context_menu']/div/div[10]/div[text()]</t>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_064</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>//div[@class='operation_container']//*[local-name()='svg' and contains(@class, 'svg_icon') and contains(@class, 'operation_item')][4]/*[local-name()='use']</t>
@@ -1435,32 +1383,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_065</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>//div[@class='menu_item']/div[contains(text(),'AIR4_560A')]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2534,8 +2456,28 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>workflow_059</t>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-popper is-pure is-light el-select__popper'][6]//div[@class='el-scrollbar']//li[2]/span[text()='运动位置2']</t>
+  </si>
+  <si>
+    <t>//div[@class='el-popper is-pure is-light el-select__popper'][5]//div[@class='el-scrollbar']//li[1]/span[text()='运动位置1']</t>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_002</t>
     </r>
     <r>
       <rPr>
@@ -2548,14 +2490,21 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>workflow_060</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_064</t>
     </r>
     <r>
       <rPr>
@@ -2570,10 +2519,1284 @@
     </r>
   </si>
   <si>
-    <t>//div[@class='el-popper is-pure is-light el-select__popper'][6]//div[@class='el-scrollbar']//li[2]/span[text()='运动位置2']</t>
-  </si>
-  <si>
-    <t>//div[@class='el-popper is-pure is-light el-select__popper'][5]//div[@class='el-scrollbar']//li[1]/span[text()='运动位置1']</t>
+    <t>//workflow_030</t>
+  </si>
+  <si>
+    <t>//workflow_031</t>
+  </si>
+  <si>
+    <t>//workflow_032</t>
+  </si>
+  <si>
+    <t>//workflow_033</t>
+  </si>
+  <si>
+    <t>//workflow_034</t>
+  </si>
+  <si>
+    <t>//workflow_035</t>
+  </si>
+  <si>
+    <t>//workflow_036</t>
+  </si>
+  <si>
+    <t>//workflow_037</t>
+  </si>
+  <si>
+    <t>//workflow_038</t>
+  </si>
+  <si>
+    <t>//workflow_039</t>
+  </si>
+  <si>
+    <t>//workflow_040</t>
+  </si>
+  <si>
+    <t>//workflow_041</t>
+  </si>
+  <si>
+    <t>//workflow_042</t>
+  </si>
+  <si>
+    <t>//workflow_043</t>
+  </si>
+  <si>
+    <t>//workflow_044</t>
+  </si>
+  <si>
+    <t>//workflow_045</t>
+  </si>
+  <si>
+    <t>//workflow_046</t>
+  </si>
+  <si>
+    <t>//workflow_047</t>
+  </si>
+  <si>
+    <t>//workflow_048</t>
+  </si>
+  <si>
+    <t>//workflow_049</t>
+  </si>
+  <si>
+    <t>//workflow_050</t>
+  </si>
+  <si>
+    <t>//workflow_051</t>
+  </si>
+  <si>
+    <t>//workflow_052</t>
+  </si>
+  <si>
+    <t>//workflow_053</t>
+  </si>
+  <si>
+    <t>//workflow_054</t>
+  </si>
+  <si>
+    <t>//workflow_055</t>
+  </si>
+  <si>
+    <t>//workflow_056</t>
+  </si>
+  <si>
+    <t>//workflow_057</t>
+  </si>
+  <si>
+    <t>//workflow_058</t>
+  </si>
+  <si>
+    <t>workflow_003</t>
+  </si>
+  <si>
+    <t>workflow_004</t>
+  </si>
+  <si>
+    <t>workflow_005</t>
+  </si>
+  <si>
+    <t>workflow_006</t>
+  </si>
+  <si>
+    <t>workflow_007</t>
+  </si>
+  <si>
+    <t>workflow_008</t>
+  </si>
+  <si>
+    <t>workflow_009</t>
+  </si>
+  <si>
+    <t>workflow_010</t>
+  </si>
+  <si>
+    <t>workflow_011</t>
+  </si>
+  <si>
+    <t>workflow_012</t>
+  </si>
+  <si>
+    <t>workflow_013</t>
+  </si>
+  <si>
+    <t>workflow_014</t>
+  </si>
+  <si>
+    <t>workflow_015</t>
+  </si>
+  <si>
+    <t>workflow_016</t>
+  </si>
+  <si>
+    <t>workflow_017</t>
+  </si>
+  <si>
+    <t>workflow_018</t>
+  </si>
+  <si>
+    <t>workflow_019</t>
+  </si>
+  <si>
+    <t>workflow_020</t>
+  </si>
+  <si>
+    <t>workflow_021</t>
+  </si>
+  <si>
+    <t>workflow_022</t>
+  </si>
+  <si>
+    <t>workflow_023</t>
+  </si>
+  <si>
+    <t>workflow_024</t>
+  </si>
+  <si>
+    <t>workflow_025</t>
+  </si>
+  <si>
+    <t>workflow_026</t>
+  </si>
+  <si>
+    <t>workflow_027</t>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_038</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_039</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_049</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_051</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_055</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -2587,7 +3810,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_003</t>
+      <t>_056</t>
     </r>
     <r>
       <rPr>
@@ -2614,7 +3837,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_004</t>
+      <t>_057</t>
     </r>
     <r>
       <rPr>
@@ -2630,6 +3853,24 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>//div[@class='el-message-box__btns']//button[@class='el-button el-button--primary el-button--small delete-primary-style']/span</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_029</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_059</t>
+  </si>
+  <si>
+    <t>//workflow_060</t>
+  </si>
+  <si>
     <r>
       <t>workflow</t>
     </r>
@@ -2641,1078 +3882,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_013</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_035</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_036</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_037</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_038</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_039</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_040</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_041</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_042</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_043</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_044</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_045</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_046</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_048</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_049</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_050</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_051</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_052</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_053</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_054</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_055</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>_056</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_064</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//workflow_003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//workflow_004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>//workflow_005</t>
-  </si>
-  <si>
-    <t>//workflow_006</t>
-  </si>
-  <si>
-    <t>//workflow_007</t>
-  </si>
-  <si>
-    <t>//workflow_008</t>
-  </si>
-  <si>
-    <t>//workflow_009</t>
-  </si>
-  <si>
-    <t>//workflow_010</t>
-  </si>
-  <si>
-    <t>//workflow_011</t>
-  </si>
-  <si>
-    <t>//workflow_012</t>
-  </si>
-  <si>
-    <t>//workflow_013</t>
-  </si>
-  <si>
-    <t>//workflow_014</t>
-  </si>
-  <si>
-    <t>//workflow_015</t>
-  </si>
-  <si>
-    <t>//workflow_016</t>
-  </si>
-  <si>
-    <t>//workflow_017</t>
-  </si>
-  <si>
-    <t>//workflow_018</t>
-  </si>
-  <si>
-    <t>//workflow_019</t>
-  </si>
-  <si>
-    <t>//workflow_020</t>
-  </si>
-  <si>
-    <t>//workflow_021</t>
-  </si>
-  <si>
-    <t>//workflow_022</t>
-  </si>
-  <si>
-    <t>//workflow_023</t>
-  </si>
-  <si>
-    <t>//workflow_024</t>
-  </si>
-  <si>
-    <t>//workflow_025</t>
-  </si>
-  <si>
-    <t>//workflow_026</t>
-  </si>
-  <si>
-    <t>//workflow_027</t>
-  </si>
-  <si>
-    <t>//workflow_028</t>
-  </si>
-  <si>
-    <t>//workflow_029</t>
-  </si>
-  <si>
-    <t>//workflow_030</t>
-  </si>
-  <si>
-    <t>//workflow_031</t>
-  </si>
-  <si>
-    <t>//workflow_032</t>
-  </si>
-  <si>
-    <t>//workflow_033</t>
-  </si>
-  <si>
-    <t>//workflow_034</t>
-  </si>
-  <si>
-    <t>//workflow_035</t>
-  </si>
-  <si>
-    <t>//workflow_036</t>
-  </si>
-  <si>
-    <t>//workflow_037</t>
-  </si>
-  <si>
-    <t>//workflow_038</t>
-  </si>
-  <si>
-    <t>//workflow_039</t>
-  </si>
-  <si>
-    <t>//workflow_040</t>
-  </si>
-  <si>
-    <t>//workflow_041</t>
-  </si>
-  <si>
-    <t>//workflow_042</t>
-  </si>
-  <si>
-    <t>//workflow_043</t>
-  </si>
-  <si>
-    <t>//workflow_044</t>
-  </si>
-  <si>
-    <t>//workflow_045</t>
-  </si>
-  <si>
-    <t>//workflow_046</t>
-  </si>
-  <si>
-    <t>//workflow_047</t>
-  </si>
-  <si>
-    <t>//workflow_048</t>
-  </si>
-  <si>
-    <t>//workflow_049</t>
-  </si>
-  <si>
-    <t>//workflow_050</t>
-  </si>
-  <si>
-    <t>//workflow_051</t>
-  </si>
-  <si>
-    <t>//workflow_052</t>
-  </si>
-  <si>
-    <t>//workflow_053</t>
-  </si>
-  <si>
-    <t>//workflow_054</t>
-  </si>
-  <si>
-    <t>//workflow_055</t>
-  </si>
-  <si>
-    <t>//workflow_056</t>
-  </si>
-  <si>
-    <t>//workflow_057</t>
-  </si>
-  <si>
-    <t>//workflow_058</t>
-  </si>
-  <si>
-    <t>/div[@class='el-message-box__btns']//button[@class='el-button el-button--primary el-button--small delete-primary-style']/span</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_057</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4637,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4647,7 +4835,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="158.375" customWidth="1"/>
+    <col min="6" max="6" width="126.25" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="69.625" customWidth="1"/>
   </cols>
@@ -4672,7 +4860,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>31</v>
@@ -4709,7 +4897,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>111</v>
@@ -4735,7 +4923,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>378</v>
+        <v>169</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>90</v>
@@ -4761,7 +4949,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>89</v>
@@ -4787,7 +4975,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -4810,7 +4998,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -4833,7 +5021,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -4856,7 +5044,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -4879,7 +5067,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -4903,7 +5091,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>45</v>
@@ -4926,7 +5114,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>47</v>
@@ -4949,7 +5137,7 @@
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>41</v>
@@ -4972,7 +5160,7 @@
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>36</v>
@@ -4995,7 +5183,7 @@
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>38</v>
@@ -5018,7 +5206,7 @@
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>227</v>
+        <v>431</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -5041,7 +5229,7 @@
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -5064,7 +5252,7 @@
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>85</v>
@@ -5087,7 +5275,7 @@
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>232</v>
+        <v>434</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>103</v>
@@ -5110,7 +5298,7 @@
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>233</v>
+        <v>435</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>41</v>
@@ -5133,7 +5321,7 @@
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>106</v>
@@ -5156,7 +5344,7 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>86</v>
@@ -5179,7 +5367,7 @@
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>236</v>
+        <v>438</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>108</v>
@@ -5202,7 +5390,7 @@
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
@@ -5225,7 +5413,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>42</v>
@@ -5251,7 +5439,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>71</v>
@@ -5279,7 +5467,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>72</v>
@@ -5307,7 +5495,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>223</v>
+        <v>443</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>75</v>
@@ -5333,7 +5521,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>224</v>
+        <v>444</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>165</v>
@@ -5359,7 +5547,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>183</v>
@@ -5380,14 +5568,14 @@
         <v>90</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>182</v>
@@ -5402,7 +5590,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>157</v>
@@ -5412,7 +5600,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>69</v>
@@ -5438,7 +5626,7 @@
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>114</v>
@@ -5461,7 +5649,7 @@
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>112</v>
@@ -5484,7 +5672,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>163</v>
@@ -5510,7 +5698,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>117</v>
@@ -5536,7 +5724,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>118</v>
@@ -5562,7 +5750,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>55</v>
@@ -5588,7 +5776,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>120</v>
@@ -5616,10 +5804,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -5644,7 +5832,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>123</v>
@@ -5670,7 +5858,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>52</v>
@@ -5696,7 +5884,7 @@
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>156</v>
@@ -5722,7 +5910,7 @@
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>126</v>
@@ -5748,7 +5936,7 @@
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>127</v>
@@ -5774,7 +5962,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>132</v>
@@ -5800,7 +5988,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="9" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>136</v>
@@ -5826,7 +6014,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>137</v>
@@ -5841,7 +6029,7 @@
         <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
@@ -5852,10 +6040,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -5875,7 +6063,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>142</v>
@@ -5898,10 +6086,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -5924,10 +6112,10 @@
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C52" s="9">
         <v>51</v>
@@ -5939,41 +6127,41 @@
         <v>44</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -5982,21 +6170,21 @@
         <v>125</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -6008,15 +6196,15 @@
         <v>44</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>108</v>
@@ -6031,15 +6219,15 @@
         <v>44</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1">
       <c r="A57" s="9" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>54</v>
@@ -6054,13 +6242,13 @@
         <v>44</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
-        <v>184</v>
+        <v>473</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>57</v>
@@ -6071,7 +6259,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>58</v>
@@ -6082,7 +6270,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>59</v>
@@ -6093,7 +6281,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>60</v>
@@ -6104,7 +6292,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>61</v>
@@ -6115,7 +6303,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>62</v>
@@ -6126,7 +6314,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>64</v>
@@ -6137,7 +6325,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="9" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>65</v>
@@ -6148,48 +6336,48 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="9" t="s">
-        <v>208</v>
+        <v>479</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C66">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="9" t="s">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6203,17 +6391,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F66" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="128" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -6240,7 +6428,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>31</v>
@@ -6254,10 +6442,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -6280,10 +6468,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -6308,10 +6496,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -6336,10 +6524,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -6364,7 +6552,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -6383,17 +6571,17 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -6405,7 +6593,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6414,22 +6602,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6438,22 +6626,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6462,10 +6650,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" s="9">
         <v>9</v>
@@ -6477,7 +6665,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -6486,10 +6674,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
@@ -6501,7 +6689,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6510,10 +6698,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="9">
         <v>11</v>
@@ -6538,10 +6726,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="9">
         <v>12</v>
@@ -6566,10 +6754,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -6594,22 +6782,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" s="9">
         <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -6618,7 +6806,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>95</v>
@@ -6637,17 +6825,17 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -6659,7 +6847,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -6668,16 +6856,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C18" s="9">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>35</v>
@@ -6692,16 +6880,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>35</v>
@@ -6718,10 +6906,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
@@ -6744,22 +6932,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" s="9">
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -6768,22 +6956,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22" s="9">
         <v>22</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -6792,22 +6980,22 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C23" s="9">
         <v>23</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -6816,22 +7004,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C24" s="9">
         <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -6840,22 +7028,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C25" s="9">
         <v>25</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -6864,22 +7052,22 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C26" s="9">
         <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -6888,34 +7076,34 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" s="9">
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" s="9" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C28" s="9">
         <v>28</v>
@@ -6924,34 +7112,30 @@
         <v>145</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" s="9">
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -6960,22 +7144,22 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30" s="9">
         <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -6984,22 +7168,22 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="9">
         <v>31</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -7008,22 +7192,22 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C32" s="9">
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G32" s="9">
         <v>50</v>
@@ -7034,22 +7218,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C33" s="9">
         <v>33</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G33" s="9">
         <v>-2500</v>
@@ -7060,22 +7244,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C34" s="9">
         <v>34</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G34" s="9">
         <v>2500</v>
@@ -7086,10 +7270,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C35" s="9">
         <v>35</v>
@@ -7101,7 +7285,7 @@
         <v>35</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -7110,10 +7294,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C36" s="9">
         <v>36</v>
@@ -7125,7 +7309,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -7134,10 +7318,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C37" s="9">
         <v>37</v>
@@ -7149,7 +7333,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7158,22 +7342,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C38" s="9">
         <v>38</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G38" s="9">
         <v>-1500</v>
@@ -7184,22 +7368,22 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C39" s="9">
         <v>39</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G39" s="9">
         <v>1500</v>
@@ -7210,22 +7394,22 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C40" s="9">
         <v>40</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -7234,22 +7418,22 @@
     </row>
     <row r="41" spans="1:10" s="16" customFormat="1">
       <c r="A41" s="9" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C41" s="9">
         <v>41</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -7258,22 +7442,22 @@
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1">
       <c r="A42" s="9" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C42" s="9">
         <v>42</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -7282,22 +7466,22 @@
     </row>
     <row r="43" spans="1:10" s="16" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C43" s="9">
         <v>43</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -7306,22 +7490,22 @@
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C44" s="9">
         <v>44</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -7330,22 +7514,22 @@
     </row>
     <row r="45" spans="1:10" s="16" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C45" s="9">
         <v>45</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -7354,22 +7538,22 @@
     </row>
     <row r="46" spans="1:10" s="16" customFormat="1">
       <c r="A46" s="9" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C46" s="9">
         <v>46</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -7378,22 +7562,22 @@
     </row>
     <row r="47" spans="1:10" s="16" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C47" s="9">
         <v>47</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -7402,22 +7586,22 @@
     </row>
     <row r="48" spans="1:10" s="16" customFormat="1">
       <c r="A48" s="9" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C48" s="9">
         <v>48</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -7426,42 +7610,42 @@
     </row>
     <row r="49" spans="1:10" s="17" customFormat="1">
       <c r="A49" s="9" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C49" s="17">
         <v>49</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="16" customFormat="1">
       <c r="A50" s="9" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C50" s="9">
         <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7470,22 +7654,22 @@
     </row>
     <row r="51" spans="1:10" s="16" customFormat="1">
       <c r="A51" s="9" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C51" s="9">
         <v>51</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -7494,22 +7678,22 @@
     </row>
     <row r="52" spans="1:10" s="16" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C52" s="9">
         <v>52</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -7518,22 +7702,22 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C53" s="9">
         <v>53</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -7542,22 +7726,22 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C54" s="9">
         <v>54</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -7566,42 +7750,42 @@
     </row>
     <row r="55" spans="1:10" s="9" customFormat="1">
       <c r="A55" s="9" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C55" s="9">
         <v>55</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="9" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C56" s="9">
         <v>56</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -7610,22 +7794,22 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="9" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C57" s="9">
         <v>57</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -7634,22 +7818,22 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="9" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C58" s="9">
         <v>58</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -7658,22 +7842,22 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="9" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C59" s="9">
         <v>59</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -7682,7 +7866,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9" t="s">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>63</v>
@@ -7694,21 +7878,21 @@
         <v>46</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="9" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>123</v>
@@ -7720,14 +7904,14 @@
         <v>46</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -7761,7 +7945,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34.5">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -7782,7 +7966,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -7791,7 +7975,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
@@ -7817,7 +8001,7 @@
         <v>99</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
@@ -7843,7 +8027,7 @@
         <v>101</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25">
@@ -7869,7 +8053,7 @@
         <v>67</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25">
@@ -7895,7 +8079,7 @@
         <v>151</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -8102,7 +8286,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>51</v>
@@ -8128,7 +8312,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>117</v>
@@ -8154,7 +8338,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>118</v>
@@ -8177,7 +8361,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>55</v>
@@ -8200,7 +8384,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>120</v>
@@ -8225,7 +8409,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>53</v>
@@ -8250,7 +8434,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>123</v>
@@ -8273,7 +8457,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>52</v>
@@ -8296,7 +8480,7 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>160</v>
@@ -8320,7 +8504,7 @@
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>161</v>
@@ -8344,7 +8528,7 @@
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>162</v>
@@ -8368,7 +8552,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>123</v>
@@ -8391,7 +8575,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>136</v>
@@ -8414,7 +8598,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>137</v>
@@ -8437,7 +8621,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>56</v>
@@ -8457,7 +8641,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>142</v>
@@ -8477,7 +8661,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>53</v>
@@ -8500,7 +8684,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>123</v>
@@ -8521,10 +8705,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32">
         <v>52</v>
@@ -8536,12 +8720,12 @@
         <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>86</v>
@@ -8556,12 +8740,12 @@
         <v>44</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>108</v>
@@ -8576,13 +8760,13 @@
         <v>44</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1">
       <c r="A35" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>54</v>
@@ -8597,13 +8781,13 @@
         <v>44</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>144</v>
@@ -8621,7 +8805,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8648,40 +8832,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:12">

--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="创建工具工作流" sheetId="3" r:id="rId2"/>
     <sheet name="运动副工作流" sheetId="5" r:id="rId3"/>
-    <sheet name="demo" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
-    <sheet name="示教器专项" sheetId="6" r:id="rId6"/>
-    <sheet name="碰撞检测" sheetId="4" r:id="rId7"/>
+    <sheet name="路径生成程序" sheetId="8" r:id="rId4"/>
+    <sheet name="示教器专项" sheetId="6" r:id="rId5"/>
+    <sheet name="碰撞检测" sheetId="4" r:id="rId6"/>
+    <sheet name="demo" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="615">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -143,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -153,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,6 +182,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,6 +193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -654,6 +658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,10 +671,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class='el-tree-node is-current is-focusable']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>TCP坐标x值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -718,6 +719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,6 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -790,6 +794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -816,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -842,6 +848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -868,6 +875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,6 +902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,6 +929,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -946,6 +956,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -972,6 +983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,6 +1010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1044,6 +1057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1070,6 +1084,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,6 +1111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,6 +1138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1148,6 +1165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1174,6 +1192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1218,42 +1237,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>//workflow</t>
     </r>
@@ -1262,6 +1245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,6 +1379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,6 +1407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1448,6 +1434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,6 +1461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1500,6 +1488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1526,6 +1515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1552,6 +1542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,6 +1570,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,6 +1597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1631,6 +1624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1657,6 +1651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,6 +1678,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1709,6 +1705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1735,6 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1761,6 +1759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1787,6 +1786,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1813,6 +1813,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1839,6 +1840,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,6 +1926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1950,6 +1953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1976,6 +1980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2002,6 +2007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2436,10 +2442,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[1]||//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[2]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2474,6 +2476,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2501,6 +2504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2519,93 +2523,6 @@
     </r>
   </si>
   <si>
-    <t>//workflow_030</t>
-  </si>
-  <si>
-    <t>//workflow_031</t>
-  </si>
-  <si>
-    <t>//workflow_032</t>
-  </si>
-  <si>
-    <t>//workflow_033</t>
-  </si>
-  <si>
-    <t>//workflow_034</t>
-  </si>
-  <si>
-    <t>//workflow_035</t>
-  </si>
-  <si>
-    <t>//workflow_036</t>
-  </si>
-  <si>
-    <t>//workflow_037</t>
-  </si>
-  <si>
-    <t>//workflow_038</t>
-  </si>
-  <si>
-    <t>//workflow_039</t>
-  </si>
-  <si>
-    <t>//workflow_040</t>
-  </si>
-  <si>
-    <t>//workflow_041</t>
-  </si>
-  <si>
-    <t>//workflow_042</t>
-  </si>
-  <si>
-    <t>//workflow_043</t>
-  </si>
-  <si>
-    <t>//workflow_044</t>
-  </si>
-  <si>
-    <t>//workflow_045</t>
-  </si>
-  <si>
-    <t>//workflow_046</t>
-  </si>
-  <si>
-    <t>//workflow_047</t>
-  </si>
-  <si>
-    <t>//workflow_048</t>
-  </si>
-  <si>
-    <t>//workflow_049</t>
-  </si>
-  <si>
-    <t>//workflow_050</t>
-  </si>
-  <si>
-    <t>//workflow_051</t>
-  </si>
-  <si>
-    <t>//workflow_052</t>
-  </si>
-  <si>
-    <t>//workflow_053</t>
-  </si>
-  <si>
-    <t>//workflow_054</t>
-  </si>
-  <si>
-    <t>//workflow_055</t>
-  </si>
-  <si>
-    <t>//workflow_056</t>
-  </si>
-  <si>
-    <t>//workflow_057</t>
-  </si>
-  <si>
-    <t>//workflow_058</t>
-  </si>
-  <si>
     <t>workflow_003</t>
   </si>
   <si>
@@ -2689,6 +2606,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2715,6 +2633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2741,6 +2660,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2767,6 +2687,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2793,6 +2714,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2819,6 +2741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2845,6 +2768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2871,6 +2795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2897,6 +2822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2923,6 +2849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2949,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2975,6 +2903,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3001,6 +2930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3027,6 +2957,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3053,6 +2984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3079,6 +3011,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3105,6 +3038,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3131,6 +3065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3157,6 +3092,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3183,6 +3119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3209,6 +3146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3235,6 +3173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3261,6 +3200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,6 +3227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3313,6 +3254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3339,6 +3281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3365,6 +3308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3391,6 +3335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3417,6 +3362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3443,6 +3389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3469,6 +3416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3495,6 +3443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3521,6 +3470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3547,6 +3497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3573,6 +3524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3599,6 +3551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3625,6 +3578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3651,6 +3605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3677,6 +3632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3703,6 +3659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3729,6 +3686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3755,6 +3713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3781,6 +3740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3807,6 +3767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3834,6 +3795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,50 +3819,730 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>//workflow_028</t>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_056</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_057</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_028</t>
+  </si>
+  <si>
+    <t>workflow_029</t>
+  </si>
+  <si>
+    <t>workflow_030</t>
+  </si>
+  <si>
+    <t>workflow_031</t>
+  </si>
+  <si>
+    <t>workflow_032</t>
+  </si>
+  <si>
+    <t>workflow_033</t>
+  </si>
+  <si>
+    <t>workflow_034</t>
+  </si>
+  <si>
+    <t>workflow_035</t>
+  </si>
+  <si>
+    <t>workflow_036</t>
+  </si>
+  <si>
+    <t>workflow_037</t>
+  </si>
+  <si>
+    <t>workflow_038</t>
+  </si>
+  <si>
+    <t>workflow_039</t>
+  </si>
+  <si>
+    <t>workflow_040</t>
+  </si>
+  <si>
+    <t>workflow_041</t>
+  </si>
+  <si>
+    <t>workflow_042</t>
+  </si>
+  <si>
+    <t>workflow_043</t>
+  </si>
+  <si>
+    <t>workflow_044</t>
+  </si>
+  <si>
+    <t>workflow_045</t>
+  </si>
+  <si>
+    <t>workflow_046</t>
+  </si>
+  <si>
+    <t>workflow_047</t>
+  </si>
+  <si>
+    <t>workflow_048</t>
+  </si>
+  <si>
+    <t>workflow_049</t>
+  </si>
+  <si>
+    <t>workflow_050</t>
+  </si>
+  <si>
+    <t>workflow_051</t>
+  </si>
+  <si>
+    <t>workflow_052</t>
+  </si>
+  <si>
+    <t>workflow_053</t>
+  </si>
+  <si>
+    <t>workflow_054</t>
+  </si>
+  <si>
+    <t>workflow_055</t>
+  </si>
+  <si>
+    <t>workflow_056</t>
+  </si>
+  <si>
+    <t>workflow_057</t>
+  </si>
+  <si>
+    <t>workflow_058</t>
+  </si>
+  <si>
+    <t>workflow_059</t>
+  </si>
+  <si>
+    <t>workflow_060</t>
+  </si>
+  <si>
+    <r>
+      <t>workflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='collapse_item'][2]/div[@class='collapse_item_title']//span</t>
+  </si>
+  <si>
+    <t>点击路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_04</t>
+  </si>
+  <si>
+    <t>workflow_05</t>
+  </si>
+  <si>
+    <t>workflow_06</t>
+  </si>
+  <si>
+    <t>workflow_07</t>
+  </si>
+  <si>
+    <t>关闭编辑路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左侧结构树Path</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击移动对象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][3]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动Z轴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动Y轴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_08</t>
+  </si>
+  <si>
+    <t>workflow_09</t>
+  </si>
+  <si>
+    <t>workflow_10</t>
+  </si>
+  <si>
+    <t>workflow_11</t>
+  </si>
+  <si>
+    <t>workflow_12</t>
+  </si>
+  <si>
+    <t>click</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>//workflow_029</t>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')][2]/div[@class='el-tree-node__children']//span[contains(text(),'Path')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')]/div[@class='el-tree-node__children']//span[contains(text(),'AIR25_1840')]</t>
+  </si>
+  <si>
+    <t>点击左侧结构树机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击检测路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='collapse_item'][2]//div[@class='content']/div[@class='child_btns_contianer']/div[@class='child_btns_contianer_row']//span[text()='点集路径']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='collapse_item'][2]//div[@class='content']/div[@class='child_btns_contianer']/div[@class='child_btns_contianer_row'][2]//span[text()='检测路径']</t>
+  </si>
+  <si>
+    <t>//div[@class='select_robot_path']/div[@class='el-select'][1]//div[@class='el-select__suffix']/i/*[local-name()='svg']</t>
+  </si>
+  <si>
+    <t>点击机器人下拉框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击路径下拉框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'AIR25_1840')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'check_btn_container')]/button</t>
+  </si>
+  <si>
+    <t>点击检查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[1]//td[2]</t>
+  </si>
+  <si>
+    <t>点击第一个点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--enable-row-transition el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[@class='el-table__row current-row']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一个cfg构型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_13</t>
+  </si>
+  <si>
+    <t>workflow_14</t>
+  </si>
+  <si>
+    <t>workflow_15</t>
+  </si>
+  <si>
+    <t>workflow_16</t>
+  </si>
+  <si>
+    <t>workflow_17</t>
+  </si>
+  <si>
+    <t>workflow_18</t>
+  </si>
+  <si>
+    <t>workflow_19</t>
+  </si>
+  <si>
+    <t>workflow_20</t>
+  </si>
+  <si>
+    <t>workflow_21</t>
+  </si>
+  <si>
+    <t>workflow_22</t>
+  </si>
+  <si>
+    <t>workflow_23</t>
+  </si>
+  <si>
+    <t>workflow_24</t>
+  </si>
+  <si>
+    <t>header &gt; button &gt; i &gt;svg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭检测路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='collapse_item'][4]//div[@class='title_icon_text']//span</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'content')]/div[@class='child_btns_contianer']//span[text()='路径生成程序']</t>
+  </si>
+  <si>
+    <t>点击程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击路径生成程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='select_channel_path']/div[@class='el-select'][1]//*[local-name()='svg']</t>
+  </si>
+  <si>
+    <t>点击机器人下拉框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[1]//td[2]/div[contains(text(),'path')]</t>
+  </si>
+  <si>
+    <t>//div[@custom-class='pickup-dialog-class']/div[@class='el-dialog__body']//span[contains(text(),'AIR25_1840')]</t>
+  </si>
+  <si>
+    <t>workflow_25</t>
+  </si>
+  <si>
+    <t>workflow_27</t>
+  </si>
+  <si>
+    <t>workflow_28</t>
+  </si>
+  <si>
+    <t>workflow_29</t>
+  </si>
+  <si>
+    <t>workflow_30</t>
+  </si>
+  <si>
+    <t>workflow_31</t>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击启动程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='model_library_item']//div[@class='model_img_wrap'][36]//p[contains(text(),'1840')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击P0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建点集路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node is-expanded is-focusable'][2]/div[@class='el-tree-node__children']/div[@class='el-tree-node is-focusable']/div[@class='el-tree-node__content']//span[contains(text(),'Path')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[@class='el-table__row current-row']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='path_create_program_footer']//span[text()='生成程序']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='custom_tree_node']/div[@class='label_content']//span[contains(text(),'program')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-card is-always-shadow custom_card']</t>
+  </si>
+  <si>
+    <t>//div[@class='operation_container']/*[local-name()='svg' and @class='svg_icon operation_item'][1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='model_library_item'][1]//div[@class='model_img_wrap'][36]/div[@class='el-image image_item el-tooltip__trigger el-tooltip__trigger']</t>
+  </si>
+  <si>
+    <t>//div[@class='model_base_tab']/div[@class='page_card_header']/button[@class='el-button close_btn']/span</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关闭模型库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-dialog__body']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-focusable'][1]//span[text()='P0']</t>
+  </si>
+  <si>
+    <t>//div[@class='el-dialog__body']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-current is-focusable']</t>
+  </si>
+  <si>
+    <t>//form[contains(@class,'el-form el-form--default el-form--label-left el-form--inline transform_position')]/div[contains(@class,'el-form-item asterisk-left el-form-item--label-left')][1]//div[contains(@class,'el-input-number is-without-controls')]//input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_32</t>
+  </si>
+  <si>
+    <t>workflow_33</t>
+  </si>
+  <si>
+    <t>workflow_34</t>
+  </si>
+  <si>
+    <t>workflow_35</t>
+  </si>
+  <si>
+    <t>workflow_36</t>
+  </si>
+  <si>
+    <t>workflow_03</t>
+  </si>
+  <si>
+    <t>点击旋转对象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_37</t>
+  </si>
+  <si>
+    <t>//div[@class='el-tabs__content']/div[@class='el-tab-pane']/div[@class='rotation_panel']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')]/div[@class='el-tree-node__children']/div[@class='el-tree-node is-current is-focusable']//span[contains(text(),'AIR25_1840')]</t>
+  </si>
+  <si>
+    <t>header &gt; button &gt; i &gt;svg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_38</t>
+  </si>
+  <si>
+    <t>点击关闭程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='collapse_item'][2]//div[@class='content']/div[@class='child_btns_contianer']/div[@class='child_btns_contianer_row'][2]//span[text()='检测路径']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//form[@class='el-form el-form--default el-form--label-left']/div[3]//div[@class='el-form-item__content']//div[@class='el-input el-input--small']//input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>//workflow_059</t>
-  </si>
-  <si>
-    <t>//workflow_060</t>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_056</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>workflow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_057</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>workflow_26</t>
+  </si>
+  <si>
+    <t>输入P0位置为0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕Z轴旋转90°</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='select_robot_path']/div[@class='el-select'][2]//div[@class='el-select__suffix']/i/*[local-name()='svg']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='select_robot_path']/div[@class='el-select'][2]//div[@class='el-select__suffix']/i/*[local-name()='svg']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--enable-row-transition el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='select_channel_path']/div[@class='el-select'][2]//*[local-name()='svg']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='custom_tree_node']/div[@class='label_content']//span[contains(text(),'program')]</t>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择移动到工作台一</t>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']//div[@class='menu_item'][5]/div[text()='移入工作台']</t>
+  </si>
+  <si>
+    <t>点击移入工作台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']//div[text()='Workbench1']</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='context_menu']//div[text()='Workbench1']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[@class='el-tree-node is-current is-focusable']</t>
+  </si>
+  <si>
+    <r>
+      <t>//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||//div[contains(@class,'content')]/div[@class='left']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[1]</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='botom_tool_wrap']/div[@class='bottom_tools_container']/div[contains(@class, 'tool_icon default')][4]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击"标准模型"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']/div[@class='el-tree-node is-expanded is-focusable']/div[@class='el-tree-node__children']/div[@class='el-tree-node is-current is-focusable']/div[@class='el-tree-node__content']//span[contains(text(),'program')]</t>
+  </si>
+  <si>
+    <t>点击“标准模型”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='el-tree-node__children']/div[@class='el-tree-node is-expanded is-current is-focusable']/div[@class='el-tree-node__children']/div[@class='el-tree-node is-focusable'][1]//span[text()='标准模型']</t>
   </si>
 </sst>
 </file>
@@ -3933,6 +4575,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3946,11 +4589,13 @@
       <sz val="11.5"/>
       <color rgb="FF0F1115"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4825,22 +5470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="126.25" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5">
+    <row r="1" spans="1:12" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4860,7 +5506,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>31</v>
@@ -4874,7 +5520,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -4897,7 +5543,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>111</v>
@@ -4923,7 +5569,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>169</v>
+        <v>470</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>90</v>
@@ -4949,7 +5595,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>89</v>
@@ -4975,7 +5621,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -4998,7 +5644,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -5021,7 +5667,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -5044,7 +5690,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -5058,19 +5704,19 @@
       <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>67</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>611</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -5082,7 +5728,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>155</v>
+        <v>614</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>151</v>
@@ -5091,7 +5737,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>45</v>
@@ -5114,7 +5760,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>47</v>
@@ -5137,7 +5783,7 @@
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>41</v>
@@ -5160,7 +5806,7 @@
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>36</v>
@@ -5183,7 +5829,7 @@
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>38</v>
@@ -5206,7 +5852,7 @@
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -5224,15 +5870,15 @@
         <v>101</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>67</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -5244,7 +5890,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>67</v>
+        <v>614</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>102</v>
@@ -5252,7 +5898,7 @@
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>85</v>
@@ -5275,7 +5921,7 @@
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>103</v>
@@ -5298,7 +5944,7 @@
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>41</v>
@@ -5321,7 +5967,7 @@
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>106</v>
@@ -5344,7 +5990,7 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>86</v>
@@ -5367,7 +6013,7 @@
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>108</v>
@@ -5385,12 +6031,12 @@
         <v>109</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
@@ -5405,7 +6051,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>77</v>
@@ -5413,7 +6059,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>42</v>
@@ -5439,7 +6085,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>71</v>
@@ -5467,7 +6113,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>72</v>
@@ -5495,7 +6141,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>75</v>
@@ -5509,48 +6155,48 @@
       <c r="E28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>78</v>
+      <c r="F28" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -5562,45 +6208,45 @@
         <v>44</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" s="9">
         <v>90</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>69</v>
@@ -5615,7 +6261,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
@@ -5626,7 +6272,7 @@
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>114</v>
@@ -5649,7 +6295,7 @@
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>112</v>
@@ -5672,10 +6318,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -5698,7 +6344,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>117</v>
@@ -5724,7 +6370,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>118</v>
@@ -5750,7 +6396,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>55</v>
@@ -5776,7 +6422,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>120</v>
@@ -5804,10 +6450,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -5832,7 +6478,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>123</v>
@@ -5858,7 +6504,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>52</v>
@@ -5884,10 +6530,10 @@
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -5910,7 +6556,7 @@
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>126</v>
@@ -5936,7 +6582,7 @@
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>127</v>
@@ -5962,7 +6608,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>132</v>
@@ -5988,7 +6634,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="9" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>136</v>
@@ -6014,7 +6660,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>137</v>
@@ -6029,7 +6675,7 @@
         <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
@@ -6040,10 +6686,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -6063,7 +6709,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>142</v>
@@ -6086,10 +6732,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -6112,10 +6758,10 @@
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C52" s="9">
         <v>51</v>
@@ -6127,41 +6773,41 @@
         <v>44</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -6170,21 +6816,21 @@
         <v>125</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="9" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -6196,15 +6842,15 @@
         <v>44</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>108</v>
@@ -6219,15 +6865,15 @@
         <v>44</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1">
       <c r="A57" s="9" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>54</v>
@@ -6242,13 +6888,13 @@
         <v>44</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>57</v>
@@ -6259,7 +6905,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>58</v>
@@ -6270,7 +6916,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>59</v>
@@ -6281,7 +6927,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>60</v>
@@ -6292,7 +6938,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>61</v>
@@ -6303,7 +6949,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>62</v>
@@ -6314,7 +6960,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>64</v>
@@ -6325,7 +6971,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="9" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>65</v>
@@ -6336,7 +6982,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="9" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>63</v>
@@ -6345,24 +6991,24 @@
         <v>55</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="9" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C67">
         <v>56</v>
@@ -6371,13 +7017,13 @@
         <v>46</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6391,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="A1:J61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6401,7 +7047,7 @@
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="75.25" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -6428,7 +7074,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>31</v>
@@ -6442,10 +7088,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -6468,10 +7114,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -6496,10 +7142,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -6524,10 +7170,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -6552,7 +7198,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -6571,17 +7217,17 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -6593,7 +7239,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6602,22 +7248,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6626,22 +7272,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6650,10 +7296,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C10" s="9">
         <v>9</v>
@@ -6665,7 +7311,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -6674,10 +7320,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
@@ -6689,7 +7335,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6698,10 +7344,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C12" s="9">
         <v>11</v>
@@ -6726,10 +7372,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C13" s="9">
         <v>12</v>
@@ -6754,10 +7400,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -6782,22 +7428,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C15" s="9">
         <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -6806,7 +7452,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>95</v>
@@ -6825,17 +7471,17 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -6847,7 +7493,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -6856,16 +7502,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C18" s="9">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>35</v>
@@ -6880,16 +7526,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>35</v>
@@ -6906,10 +7552,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
@@ -6932,22 +7578,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C21" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -6956,22 +7602,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C22" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -6980,22 +7626,22 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C23" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -7004,22 +7650,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C24" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -7028,22 +7674,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C25" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -7052,22 +7698,22 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C26" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7076,22 +7722,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="9">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="C27" s="9">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -7100,42 +7746,42 @@
     </row>
     <row r="28" spans="1:10" s="9" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C28" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>365</v>
+        <v>296</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C29" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -7144,22 +7790,22 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C30" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -7168,22 +7814,22 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C31" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -7192,22 +7838,22 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C32" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G32" s="9">
         <v>50</v>
@@ -7218,22 +7864,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C33" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G33" s="9">
         <v>-2500</v>
@@ -7244,22 +7890,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C34" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G34" s="9">
         <v>2500</v>
@@ -7270,13 +7916,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C35" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>88</v>
@@ -7285,7 +7931,7 @@
         <v>35</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -7294,13 +7940,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C36" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>88</v>
@@ -7309,7 +7955,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -7318,13 +7964,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C37" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>46</v>
@@ -7333,7 +7979,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7342,22 +7988,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C38" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G38" s="9">
         <v>-1500</v>
@@ -7368,22 +8014,22 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C39" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G39" s="9">
         <v>1500</v>
@@ -7394,22 +8040,22 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C40" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -7418,22 +8064,22 @@
     </row>
     <row r="41" spans="1:10" s="16" customFormat="1">
       <c r="A41" s="9" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C41" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -7442,22 +8088,22 @@
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1">
       <c r="A42" s="9" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C42" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -7466,22 +8112,22 @@
     </row>
     <row r="43" spans="1:10" s="16" customFormat="1">
       <c r="A43" s="9" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C43" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -7490,22 +8136,22 @@
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C44" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -7514,22 +8160,22 @@
     </row>
     <row r="45" spans="1:10" s="16" customFormat="1">
       <c r="A45" s="9" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C45" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -7538,22 +8184,22 @@
     </row>
     <row r="46" spans="1:10" s="16" customFormat="1">
       <c r="A46" s="9" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C46" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -7562,22 +8208,22 @@
     </row>
     <row r="47" spans="1:10" s="16" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C47" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -7586,22 +8232,22 @@
     </row>
     <row r="48" spans="1:10" s="16" customFormat="1">
       <c r="A48" s="9" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C48" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -7610,42 +8256,42 @@
     </row>
     <row r="49" spans="1:10" s="17" customFormat="1">
       <c r="A49" s="9" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="17">
-        <v>49</v>
+        <v>319</v>
+      </c>
+      <c r="C49" s="9">
+        <v>48</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="16" customFormat="1">
       <c r="A50" s="9" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C50" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7654,22 +8300,22 @@
     </row>
     <row r="51" spans="1:10" s="16" customFormat="1">
       <c r="A51" s="9" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C51" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -7678,22 +8324,22 @@
     </row>
     <row r="52" spans="1:10" s="16" customFormat="1">
       <c r="A52" s="9" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C52" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -7702,22 +8348,22 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C53" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -7726,22 +8372,22 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C54" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -7750,42 +8396,42 @@
     </row>
     <row r="55" spans="1:10" s="9" customFormat="1">
       <c r="A55" s="9" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C55" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="9" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C56" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -7794,22 +8440,22 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="9" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C57" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -7818,22 +8464,22 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="9" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C58" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -7842,22 +8488,22 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="9" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C59" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -7866,52 +8512,52 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -7924,6 +8570,989 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="A1:J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="69.375" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34.5">
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-90</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C28" s="3">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1">
+      <c r="A29" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C34" s="9">
+        <v>33</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H34" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C35" s="9">
+        <v>34</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C36" s="9">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="9">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H37" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C38" s="9">
+        <v>37</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F38" t="s">
+        <v>612</v>
+      </c>
+      <c r="H38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" s="9">
+        <v>38</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -7945,7 +9574,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34.5">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -7966,7 +9595,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -7975,12 +9604,12 @@
         <v>33</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -8001,12 +9630,12 @@
         <v>99</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>38</v>
@@ -8027,12 +9656,12 @@
         <v>101</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
@@ -8053,12 +9682,12 @@
         <v>67</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -8079,13 +9708,13 @@
         <v>151</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -8108,7 +9737,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>47</v>
@@ -8131,7 +9760,7 @@
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>41</v>
@@ -8149,12 +9778,12 @@
         <v>84</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>69</v>
@@ -8169,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="14" t="s">
@@ -8180,7 +9809,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>75</v>
@@ -8199,29 +9828,29 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="14" t="s">
@@ -8232,10 +9861,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -8253,14 +9882,14 @@
         <v>-90</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>110</v>
@@ -8275,7 +9904,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="14" t="s">
@@ -8286,7 +9915,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>51</v>
@@ -8312,7 +9941,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>117</v>
@@ -8338,7 +9967,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>118</v>
@@ -8361,7 +9990,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>55</v>
@@ -8384,7 +10013,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>120</v>
@@ -8409,7 +10038,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>53</v>
@@ -8434,7 +10063,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>123</v>
@@ -8457,7 +10086,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>52</v>
@@ -8480,10 +10109,10 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -8504,10 +10133,10 @@
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -8528,10 +10157,10 @@
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -8552,7 +10181,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>123</v>
@@ -8575,7 +10204,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>136</v>
@@ -8598,7 +10227,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>137</v>
@@ -8621,7 +10250,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>56</v>
@@ -8641,7 +10270,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>142</v>
@@ -8661,7 +10290,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>53</v>
@@ -8684,7 +10313,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>123</v>
@@ -8705,10 +10334,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C32">
         <v>52</v>
@@ -8720,12 +10349,12 @@
         <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>86</v>
@@ -8740,12 +10369,12 @@
         <v>44</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>108</v>
@@ -8760,13 +10389,13 @@
         <v>44</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1">
       <c r="A35" s="9" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>54</v>
@@ -8781,13 +10410,13 @@
         <v>44</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>144</v>
@@ -8805,7 +10434,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8813,191 +10442,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="595">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3163,14 +3163,6 @@
     <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][3]/div[@class='el-form-item__content']/div/div/div/div/input</t>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>移动Z轴</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3185,23 +3177,9 @@
     <t>workflow_09</t>
   </si>
   <si>
-    <t>workflow_10</t>
-  </si>
-  <si>
-    <t>workflow_11</t>
-  </si>
-  <si>
     <t>workflow_12</t>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')][2]/div[@class='el-tree-node__children']//span[contains(text(),'Path')]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3329,18 +3307,6 @@
     <t>//div[@class='select_channel_path']/div[@class='el-select'][1]//*[local-name()='svg']</t>
   </si>
   <si>
-    <t>点击机器人下拉框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择机器人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择路径</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[1]//td[2]/div[contains(text(),'path')]</t>
   </si>
   <si>
@@ -3365,10 +3331,6 @@
     <t>workflow_31</t>
   </si>
   <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>双击程序</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3377,35 +3339,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class='model_library_item']//div[@class='model_img_wrap'][36]//p[contains(text(),'1840')]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>点击P0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点击创建点集路径</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3432,37 +3369,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class='model_library_item'][1]//div[@class='model_img_wrap'][36]/div[@class='el-image image_item el-tooltip__trigger el-tooltip__trigger']</t>
-  </si>
-  <si>
     <t>//div[@class='model_base_tab']/div[@class='page_card_header']/button[@class='el-button close_btn']/span</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>点击关闭模型库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@class='el-dialog__body']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-focusable'][1]//span[text()='P0']</t>
-  </si>
-  <si>
     <t>//div[@class='el-dialog__body']/div[@class='el-tree el-tree--highlight-current']/div[@class='el-tree-node is-current is-focusable']</t>
   </si>
   <si>
@@ -3505,17 +3415,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>css</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>workflow_38</t>
   </si>
   <si>
-    <t>点击关闭程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class='collapse_item'][2]//div[@class='content']/div[@class='child_btns_contianer']/div[@class='child_btns_contianer_row'][2]//span[text()='检测路径']</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3524,10 +3426,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>workflow_26</t>
   </si>
   <si>
@@ -3535,46 +3433,22 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class='el-form-item asterisk-left el-form-item--label-left'][2]/div[@class='el-form-item__content']/div/div/div/div/input</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>绕Z轴旋转90°</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class='select_robot_path']/div[@class='el-select'][2]//div[@class='el-select__suffix']/i/*[local-name()='svg']</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@class='select_robot_path']/div[@class='el-select'][2]//div[@class='el-select__suffix']/i/*[local-name()='svg']</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[contains(@class,'el-table--fit el-table--enable-row-hover el-table--enable-row-transition el-table--default el-table el-table--layout-fixed is-scrolling-none')]/div[@class='el-table__inner-wrapper']//div[@class='el-table__body-wrapper']//table[@class='el-table__body']//tr[1]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3583,38 +3457,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[contains(@class,'el-scrollbar')]/div[contains(@class,'el-select-dropdown__wrap el-scrollbar__wrap el-scrollbar__wrap--hidden-default')]//span[contains(text(),'Path')]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@class='custom_tree_node']/div[@class='label_content']//span[contains(text(),'program')]</t>
   </si>
   <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>右键点击程序</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3630,14 +3475,6 @@
   </si>
   <si>
     <t>//div[@class='context_menu']//div[text()='Workbench1']</t>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>//div[@class='context_menu']//div[text()='Workbench1']</t>
@@ -3808,6 +3645,153 @@
   <si>
     <t>//div[@class='message_log_container']/div[@class='message_container message_container_min_height']/p//span[contains(text(),'没有')]</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开启使能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg.power_down_icon &gt;use</t>
+  </si>
+  <si>
+    <t>svg.power_icon &gt;use</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_39</t>
+  </si>
+  <si>
+    <t>svg.power_icon &gt;use</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='model_library_item'][1]//div[@class='model_img_wrap'][36]/div[@class='el-image image_item el-tooltip__trigger el-tooltip__trigger']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@class,'el-tree-node is-expanded is-focusable')]/div[@class='el-tree-node__children']//span[contains(text(),'AIR25_1840')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭路径生成程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭模型库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3985,7 +3969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4039,6 +4023,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4933,7 +4920,7 @@
         <v>94</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4941,7 +4928,7 @@
         <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -4953,7 +4940,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>141</v>
@@ -5095,7 +5082,7 @@
         <v>94</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1">
@@ -5103,7 +5090,7 @@
         <v>332</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -5115,7 +5102,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>95</v>
@@ -5381,7 +5368,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
@@ -6317,7 +6304,7 @@
         <v>294</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -6333,7 +6320,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6491,11 +6478,11 @@
         <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -6531,7 +6518,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -6543,11 +6530,11 @@
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6573,7 +6560,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6664,10 +6651,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -6683,7 +6670,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -6709,7 +6696,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -6735,7 +6722,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -6761,7 +6748,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -6817,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -6843,7 +6830,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -6999,7 +6986,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -7021,7 +7008,7 @@
         <v>244</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
@@ -7087,7 +7074,7 @@
         <v>379</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C31" s="3">
         <v>30</v>
@@ -7103,7 +7090,7 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -7131,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -7153,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="G33" s="3">
         <v>-2500</v>
@@ -7213,7 +7200,7 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -7239,7 +7226,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -7265,7 +7252,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -7357,7 +7344,7 @@
         <v>389</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="C41" s="3">
         <v>40</v>
@@ -7447,7 +7434,7 @@
         <v>34</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
@@ -7565,7 +7552,7 @@
         <v>397</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C49" s="3">
         <v>48</v>
@@ -7614,10 +7601,10 @@
     </row>
     <row r="51" spans="1:10" s="13" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="C51" s="3">
         <v>50</v>
@@ -7633,7 +7620,7 @@
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -7669,7 +7656,7 @@
         <v>400</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="C53" s="3">
         <v>52</v>
@@ -7711,7 +7698,7 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -7737,7 +7724,7 @@
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -7759,7 +7746,7 @@
         <v>34</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
@@ -7789,7 +7776,7 @@
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -7799,7 +7786,7 @@
         <v>405</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="C58" s="3">
         <v>57</v>
@@ -7841,7 +7828,7 @@
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -7907,16 +7894,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="6.125" customWidth="1"/>
     <col min="4" max="4" width="4.875" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
@@ -7925,7 +7912,7 @@
     <col min="8" max="8" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5">
+    <row r="1" spans="1:13" ht="34.5">
       <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
@@ -7947,218 +7934,287 @@
       <c r="G1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="G3" s="3"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>566</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="9">
+        <v>578</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>499</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" t="s">
-        <v>435</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>483</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" s="3"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="H7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1">
+      <c r="F7" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>522</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1">
+      <c r="I9" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>418</v>
@@ -8173,15 +8229,21 @@
         <v>419</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
+        <v>458</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>429</v>
+        <v>580</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>420</v>
@@ -8193,18 +8255,24 @@
         <v>236</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1">
+    <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>430</v>
+        <v>581</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>421</v>
@@ -8216,30 +8284,36 @@
         <v>236</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+    <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>423</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>422</v>
@@ -8247,42 +8321,54 @@
       <c r="G13" s="3">
         <v>1000</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="I13" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>424</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>524</v>
+        <v>68</v>
       </c>
       <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
+      <c r="I14" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -8291,70 +8377,88 @@
         <v>236</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+        <v>429</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>509</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>519</v>
+        <v>236</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>525</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+      <c r="I16" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>527</v>
+        <v>255</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G17" s="3">
         <v>-90</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
+      <c r="I17" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -8363,21 +8467,27 @@
         <v>236</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+      <c r="I18" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -8386,21 +8496,27 @@
         <v>236</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
+        <v>434</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -8409,21 +8525,27 @@
         <v>236</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+        <v>439</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
@@ -8432,21 +8554,27 @@
         <v>236</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
+        <v>504</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -8455,21 +8583,27 @@
         <v>236</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+        <v>505</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>447</v>
+        <v>561</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -8478,21 +8612,27 @@
         <v>236</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+        <v>562</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -8501,21 +8641,27 @@
         <v>236</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+        <v>440</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -8524,21 +8670,27 @@
         <v>236</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1">
+        <v>442</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -8547,21 +8699,30 @@
         <v>236</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>514</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+        <v>506</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -8570,21 +8731,27 @@
         <v>236</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1">
+        <v>458</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C28" s="3">
         <v>27</v>
@@ -8593,21 +8760,27 @@
         <v>236</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
+        <v>460</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C29" s="3">
         <v>28</v>
@@ -8616,21 +8789,27 @@
         <v>236</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="C30" s="3">
         <v>29</v>
@@ -8639,21 +8818,27 @@
         <v>236</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
+        <v>464</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C31" s="3">
         <v>30</v>
@@ -8662,21 +8847,27 @@
         <v>236</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1">
+        <v>439</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C32" s="3">
         <v>31</v>
@@ -8685,175 +8876,280 @@
         <v>236</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H32" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1">
+      <c r="A33" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="9">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C34" s="9">
-        <v>33</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H34" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C35" s="9">
-        <v>34</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C36" s="9">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C37" s="9">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="9">
-        <v>37</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="F38" t="s">
-        <v>551</v>
-      </c>
-      <c r="H38" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="9">
-        <v>38</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="G40" s="19"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8890,10 +9186,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="A1:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8905,12 +9201,12 @@
     <col min="5" max="5" width="5.75" customWidth="1"/>
     <col min="6" max="6" width="78.875" customWidth="1"/>
     <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="82" customWidth="1"/>
-    <col min="10" max="10" width="92.625" style="12" customWidth="1"/>
+    <col min="8" max="10" width="6.25" customWidth="1"/>
+    <col min="11" max="11" width="82" customWidth="1"/>
+    <col min="12" max="12" width="92.625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.75">
+    <row r="1" spans="1:13" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8933,19 +9229,25 @@
         <v>180</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>410</v>
       </c>
@@ -8964,11 +9266,17 @@
       <c r="F2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>411</v>
       </c>
@@ -8988,14 +9296,20 @@
         <v>274</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>273</v>
@@ -9010,40 +9324,50 @@
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="I4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1">
+      <c r="A5" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="I5" t="s">
-        <v>435</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>415</v>
       </c>
@@ -9063,17 +9387,23 @@
         <v>412</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -9085,19 +9415,25 @@
         <v>34</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" t="s">
-        <v>490</v>
-      </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1">
+        <v>432</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
@@ -9109,18 +9445,24 @@
         <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -9132,41 +9474,53 @@
         <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1">
+      <c r="A10" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1">
+      <c r="F10" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>429</v>
+        <v>580</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>420</v>
@@ -9181,15 +9535,21 @@
         <v>139</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1">
+    <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>430</v>
+        <v>581</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>421</v>
@@ -9207,15 +9567,21 @@
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1">
+    <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C13" s="9">
         <v>12</v>
@@ -9233,15 +9599,21 @@
         <v>1000</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -9253,21 +9625,27 @@
         <v>139</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="G14" s="3">
         <v>-1000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C15" s="9">
         <v>14</v>
@@ -9279,18 +9657,24 @@
         <v>139</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="C16" s="9">
         <v>15</v>
@@ -9305,15 +9689,21 @@
         <v>72</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -9325,21 +9715,27 @@
         <v>139</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G17" s="3">
         <v>-90</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C18" s="9">
         <v>17</v>
@@ -9351,18 +9747,24 @@
         <v>139</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
@@ -9374,18 +9776,24 @@
         <v>139</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
@@ -9397,18 +9805,24 @@
         <v>139</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C21" s="9">
         <v>20</v>
@@ -9420,18 +9834,24 @@
         <v>139</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C22" s="9">
         <v>21</v>
@@ -9443,18 +9863,24 @@
         <v>139</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>447</v>
+        <v>561</v>
       </c>
       <c r="C23" s="9">
         <v>22</v>
@@ -9463,21 +9889,27 @@
         <v>236</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>446</v>
+        <v>562</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C24" s="9">
         <v>23</v>
@@ -9489,18 +9921,24 @@
         <v>139</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C25" s="9">
         <v>24</v>
@@ -9512,21 +9950,24 @@
         <v>139</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H25" s="3" t="b">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C26" s="9">
         <v>25</v>
@@ -9535,44 +9976,59 @@
         <v>236</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1">
+      <c r="A27" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="13">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="F27" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C27" s="9">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C28" s="9">
         <v>27</v>
@@ -9584,18 +10040,24 @@
         <v>139</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="C29" s="9">
         <v>28</v>
@@ -9607,18 +10069,24 @@
         <v>139</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C30" s="9">
         <v>29</v>
@@ -9630,18 +10098,24 @@
         <v>139</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C31" s="9">
         <v>30</v>
@@ -9653,18 +10127,24 @@
         <v>139</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1">
+        <v>573</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C32" s="9">
         <v>31</v>
@@ -9676,42 +10156,53 @@
         <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>573</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>438</v>
       </c>
       <c r="C33" s="9">
         <v>32</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="F33" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>516</v>
+        <v>54</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
@@ -9719,139 +10210,202 @@
       <c r="D34" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" s="13" customFormat="1">
+      <c r="A35" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="13">
+        <v>34</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I34" t="s">
-        <v>466</v>
-      </c>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C35" s="9">
-        <v>34</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="F35" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="C36" s="9">
         <v>35</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>236</v>
+      <c r="D36" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10">
+        <v>575</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C37" s="9">
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="I37" t="s">
-        <v>552</v>
-      </c>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10">
+        <v>511</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="C38" s="9">
         <v>37</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F38" t="s">
-        <v>551</v>
-      </c>
-      <c r="I38" t="s">
-        <v>494</v>
-      </c>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="F38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K38" t="s">
+        <v>520</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C39" s="9">
         <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K39" t="s">
+        <v>481</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C40" s="9">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9" t="s">
+      <c r="F40" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J39"/>
+      <c r="L40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/testcases/data/test_data.xlsx
+++ b/testcases/data/test_data.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="创建工具工作流" sheetId="3" r:id="rId2"/>
-    <sheet name="运动副工作流" sheetId="5" r:id="rId3"/>
-    <sheet name="路径生成程序" sheetId="8" r:id="rId4"/>
+    <sheet name="ToolCreation" sheetId="3" r:id="rId2"/>
+    <sheet name="MotionPair" sheetId="5" r:id="rId3"/>
+    <sheet name="PathGenerator" sheetId="8" r:id="rId4"/>
     <sheet name="示教器专项" sheetId="6" r:id="rId5"/>
     <sheet name="碰撞检测" sheetId="4" r:id="rId6"/>
     <sheet name="demo" sheetId="7" r:id="rId7"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="602">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3791,6 +3791,32 @@
   </si>
   <si>
     <t>xpath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>div[contains(@class,'el-tree-node is-expanded is-focusable')]/div[@class='el-tree-node__children']//span[contains(text(),'AIR25_1840')]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_10</t>
+  </si>
+  <si>
+    <t>workflow_11</t>
+  </si>
+  <si>
+    <t>//workflow_37</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_38</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>//workflow_39</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6249,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="A1:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7896,8 +7922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7909,7 +7935,7 @@
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="75.75" customWidth="1"/>
     <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="47.75" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.5">
@@ -8047,14 +8073,14 @@
         <v>584</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>414</v>
+        <v>596</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>578</v>
@@ -8243,7 +8269,7 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>420</v>
@@ -8272,7 +8298,7 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>421</v>
@@ -9054,7 +9080,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>493</v>
+        <v>599</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>510</v>
@@ -9087,7 +9113,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>497</v>
+        <v>600</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>473</v>
@@ -9120,7 +9146,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>474</v>
